--- a/Code/Results/Cases/Case_3_20/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_20/res_line/loading_percent.xlsx
@@ -412,19 +412,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.77756374326407</v>
+        <v>18.77756374326406</v>
       </c>
       <c r="C2">
-        <v>15.5100696519597</v>
+        <v>15.51006965195972</v>
       </c>
       <c r="D2">
-        <v>2.855902309269856</v>
+        <v>2.855902309269857</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>27.80502493749841</v>
+        <v>27.80502493749842</v>
       </c>
       <c r="G2">
         <v>21.1466324741864</v>
@@ -450,25 +450,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.5661747654611</v>
+        <v>17.56617476546115</v>
       </c>
       <c r="C3">
-        <v>14.50892131553886</v>
+        <v>14.50892131553888</v>
       </c>
       <c r="D3">
-        <v>2.940967185289506</v>
+        <v>2.940967185289236</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>26.35805352246794</v>
+        <v>26.35805352246789</v>
       </c>
       <c r="G3">
-        <v>20.21129158123739</v>
+        <v>20.21129158123731</v>
       </c>
       <c r="H3">
-        <v>16.70532083255962</v>
+        <v>16.70532083255948</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -480,7 +480,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>27.66921198458565</v>
+        <v>27.6692119845857</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,25 +488,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.78099125048389</v>
+        <v>16.7809912504839</v>
       </c>
       <c r="C4">
-        <v>13.861686804787</v>
+        <v>13.86168680478676</v>
       </c>
       <c r="D4">
-        <v>2.992705350974981</v>
+        <v>2.992705350975048</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>25.46663578139375</v>
+        <v>25.4666357813939</v>
       </c>
       <c r="G4">
-        <v>19.64455311202093</v>
+        <v>19.64455311202105</v>
       </c>
       <c r="H4">
-        <v>16.45790318850919</v>
+        <v>16.45790318850925</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -518,7 +518,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>26.1905010351691</v>
+        <v>26.19050103516897</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,10 +526,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.45057572666402</v>
+        <v>16.45057572666409</v>
       </c>
       <c r="C5">
-        <v>13.58971192993857</v>
+        <v>13.5897119299387</v>
       </c>
       <c r="D5">
         <v>3.013714809680932</v>
@@ -538,13 +538,13 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>25.10293483403763</v>
+        <v>25.10293483403755</v>
       </c>
       <c r="G5">
-        <v>19.41565804588987</v>
+        <v>19.41565804588977</v>
       </c>
       <c r="H5">
-        <v>16.36168093263876</v>
+        <v>16.36168093263863</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>25.57512556399563</v>
+        <v>25.57512556399566</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,22 +564,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.39507854494018</v>
+        <v>16.39507854494015</v>
       </c>
       <c r="C6">
-        <v>13.54405313897684</v>
+        <v>13.54405313897673</v>
       </c>
       <c r="D6">
-        <v>3.017200258287737</v>
+        <v>3.017200258287871</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>25.04252666906087</v>
+        <v>25.04252666906088</v>
       </c>
       <c r="G6">
-        <v>19.37777960397785</v>
+        <v>19.37777960397787</v>
       </c>
       <c r="H6">
         <v>16.34597675813762</v>
@@ -594,7 +594,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>25.47214423745304</v>
+        <v>25.47214423745307</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,25 +602,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.77657749606801</v>
+        <v>16.77657749606799</v>
       </c>
       <c r="C7">
         <v>13.85805219310244</v>
       </c>
       <c r="D7">
-        <v>2.992988931705427</v>
+        <v>2.99298893170536</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>25.46173209626421</v>
+        <v>25.46173209626418</v>
       </c>
       <c r="G7">
-        <v>19.64145759775072</v>
+        <v>19.64145759775069</v>
       </c>
       <c r="H7">
-        <v>16.45658706980469</v>
+        <v>16.45658706980467</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -632,7 +632,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>26.18225485355096</v>
+        <v>26.18225485355087</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -643,22 +643,22 @@
         <v>18.36843929689148</v>
       </c>
       <c r="C8">
-        <v>15.17159483771975</v>
+        <v>15.17159483771984</v>
       </c>
       <c r="D8">
-        <v>2.885366657044872</v>
+        <v>2.885366657044937</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>27.30687964470767</v>
+        <v>27.30687964470761</v>
       </c>
       <c r="G8">
-        <v>20.82263456684159</v>
+        <v>20.82263456684155</v>
       </c>
       <c r="H8">
-        <v>16.98550128736655</v>
+        <v>16.98550128736649</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>29.20615733980771</v>
+        <v>29.20615733980778</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,10 +678,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>21.16395505717671</v>
+        <v>21.16395505717655</v>
       </c>
       <c r="C9">
-        <v>17.49190169561533</v>
+        <v>17.49190169561536</v>
       </c>
       <c r="D9">
         <v>2.667772926423426</v>
@@ -690,13 +690,13 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>30.89361794633345</v>
+        <v>30.89361794633347</v>
       </c>
       <c r="G9">
-        <v>23.19505993315704</v>
+        <v>23.19505993315708</v>
       </c>
       <c r="H9">
-        <v>18.17994374292108</v>
+        <v>18.1799437429212</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -708,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>34.81784347106861</v>
+        <v>34.81784347106855</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,25 +716,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>23.02247608991185</v>
+        <v>23.02247608991183</v>
       </c>
       <c r="C10">
-        <v>19.04500819007493</v>
+        <v>19.04500819007509</v>
       </c>
       <c r="D10">
-        <v>2.499368895702708</v>
+        <v>2.499368895702707</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>33.50776539189699</v>
+        <v>33.50776539189692</v>
       </c>
       <c r="G10">
-        <v>24.97259556952354</v>
+        <v>24.9725955695235</v>
       </c>
       <c r="H10">
-        <v>19.16492110915378</v>
+        <v>19.16492110915373</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>38.84342419455476</v>
+        <v>38.8434241945548</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,25 +754,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.82628033164537</v>
+        <v>23.82628033164539</v>
       </c>
       <c r="C11">
-        <v>19.71965635842452</v>
+        <v>19.71965635842448</v>
       </c>
       <c r="D11">
-        <v>2.419537208935468</v>
+        <v>2.41953720893547</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>34.7090436578816</v>
+        <v>34.70904365788143</v>
       </c>
       <c r="G11">
-        <v>25.79077457717404</v>
+        <v>25.79077457717395</v>
       </c>
       <c r="H11">
-        <v>19.63973241925608</v>
+        <v>19.63973241925602</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -784,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>40.68427433333957</v>
+        <v>40.68427433333945</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -795,22 +795,22 @@
         <v>24.12471572006244</v>
       </c>
       <c r="C12">
-        <v>19.97062949617203</v>
+        <v>19.97062949617201</v>
       </c>
       <c r="D12">
-        <v>2.388689181013731</v>
+        <v>2.388689181013797</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>35.20401677162261</v>
+        <v>35.20401677162262</v>
       </c>
       <c r="G12">
-        <v>26.10231593112279</v>
+        <v>26.10231593112283</v>
       </c>
       <c r="H12">
-        <v>19.82376475449968</v>
+        <v>19.82376475449975</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>41.38636687391842</v>
+        <v>41.38636687391839</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,25 +830,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>24.06070644231068</v>
+        <v>24.06070644231056</v>
       </c>
       <c r="C13">
-        <v>19.91677691381424</v>
+        <v>19.91677691381432</v>
       </c>
       <c r="D13">
-        <v>2.395363264761524</v>
+        <v>2.395363264761659</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>35.09749147206126</v>
+        <v>35.09749147206112</v>
       </c>
       <c r="G13">
-        <v>26.03513638901772</v>
+        <v>26.03513638901767</v>
       </c>
       <c r="H13">
-        <v>19.78393438368081</v>
+        <v>19.7839343836808</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>41.23486500565179</v>
+        <v>41.23486500565163</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,10 +868,10 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.85095183833445</v>
+        <v>23.85095183833452</v>
       </c>
       <c r="C14">
-        <v>19.74039384008241</v>
+        <v>19.74039384008231</v>
       </c>
       <c r="D14">
         <v>2.417012742479963</v>
@@ -880,13 +880,13 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>34.74980079668384</v>
+        <v>34.74980079668374</v>
       </c>
       <c r="G14">
-        <v>25.81636834659292</v>
+        <v>25.81636834659285</v>
       </c>
       <c r="H14">
-        <v>19.65478540356989</v>
+        <v>19.6547854035698</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>40.7419104809269</v>
+        <v>40.74191048092688</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,25 +906,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23.7216973529099</v>
+        <v>23.72169735290984</v>
       </c>
       <c r="C15">
-        <v>19.63177021269722</v>
+        <v>19.63177021269702</v>
       </c>
       <c r="D15">
-        <v>2.43018792456073</v>
+        <v>2.430187924560798</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>34.53854856072326</v>
+        <v>34.53854856072322</v>
       </c>
       <c r="G15">
-        <v>25.68260289542844</v>
+        <v>25.68260289542841</v>
       </c>
       <c r="H15">
-        <v>19.57624256978171</v>
+        <v>19.57624256978169</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -936,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>40.44074137461848</v>
+        <v>40.44074137461858</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,25 +944,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.96911149371621</v>
+        <v>22.96911149371611</v>
       </c>
       <c r="C16">
-        <v>19.00028409843137</v>
+        <v>19.0002840984312</v>
       </c>
       <c r="D16">
-        <v>2.504509020007721</v>
+        <v>2.504509020007921</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>33.43017057804478</v>
+        <v>33.43017057804468</v>
       </c>
       <c r="G16">
-        <v>24.91934339351199</v>
+        <v>24.91934339351197</v>
       </c>
       <c r="H16">
-        <v>19.13445953425233</v>
+        <v>19.13445953425236</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>38.72359691239781</v>
+        <v>38.72359691239771</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,25 +982,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>22.49679250070402</v>
+        <v>22.49679250070405</v>
       </c>
       <c r="C17">
-        <v>18.6047842995053</v>
+        <v>18.6047842995052</v>
       </c>
       <c r="D17">
-        <v>2.549180189967955</v>
+        <v>2.549180189967825</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>32.74996351395035</v>
+        <v>32.74996351395021</v>
       </c>
       <c r="G17">
-        <v>24.45374976046844</v>
+        <v>24.45374976046833</v>
       </c>
       <c r="H17">
-        <v>18.87052858483816</v>
+        <v>18.87052858483807</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>37.67487365075282</v>
+        <v>37.67487365075285</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,25 +1020,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>22.2212054305741</v>
+        <v>22.22120543057405</v>
       </c>
       <c r="C18">
-        <v>18.37429884385734</v>
+        <v>18.37429884385731</v>
       </c>
       <c r="D18">
-        <v>2.574581682781618</v>
+        <v>2.574581682781419</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>32.35850398951987</v>
+        <v>32.35850398951978</v>
       </c>
       <c r="G18">
-        <v>24.18682440976886</v>
+        <v>24.18682440976879</v>
       </c>
       <c r="H18">
-        <v>18.72121071990255</v>
+        <v>18.7212107199025</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>37.07230752668749</v>
+        <v>37.07230752668752</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,22 +1058,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>22.1272212928724</v>
+        <v>22.12722129287235</v>
       </c>
       <c r="C19">
-        <v>18.29574189586128</v>
+        <v>18.29574189586123</v>
       </c>
       <c r="D19">
-        <v>2.583136031054931</v>
+        <v>2.583136031054932</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>32.22591429240224</v>
+        <v>32.22591429240227</v>
       </c>
       <c r="G19">
-        <v>24.0965901123915</v>
+        <v>24.09659011239152</v>
       </c>
       <c r="H19">
         <v>18.67107167352058</v>
@@ -1088,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>36.86830514251987</v>
+        <v>36.86830514251985</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,25 +1096,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>22.54747718510251</v>
+        <v>22.54747718510247</v>
       </c>
       <c r="C20">
-        <v>18.64719627645133</v>
+        <v>18.64719627645135</v>
       </c>
       <c r="D20">
-        <v>2.544456087485147</v>
+        <v>2.544456087485081</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>32.82239321823589</v>
+        <v>32.82239321823585</v>
       </c>
       <c r="G20">
-        <v>24.50322084236728</v>
+        <v>24.50322084236724</v>
       </c>
       <c r="H20">
-        <v>18.89836453411858</v>
+        <v>18.89836453411855</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1126,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>37.78642405718941</v>
+        <v>37.78642405718939</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,25 +1134,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.91272305595889</v>
+        <v>23.91272305595879</v>
       </c>
       <c r="C21">
-        <v>19.79232337303108</v>
+        <v>19.79232337303123</v>
       </c>
       <c r="D21">
-        <v>2.41067197754091</v>
+        <v>2.410671977540979</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>34.85197376042152</v>
+        <v>34.85197376042146</v>
       </c>
       <c r="G21">
-        <v>25.88057572329626</v>
+        <v>25.88057572329622</v>
       </c>
       <c r="H21">
-        <v>19.69260104416842</v>
+        <v>19.69260104416841</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1164,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>40.88653237391618</v>
+        <v>40.8865323739162</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,25 +1172,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>24.77032108186077</v>
+        <v>24.77032108186076</v>
       </c>
       <c r="C22">
-        <v>20.51452379968782</v>
+        <v>20.51452379968768</v>
       </c>
       <c r="D22">
-        <v>2.319528742618613</v>
+        <v>2.31952874261868</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>36.28981105979891</v>
+        <v>36.28981105979886</v>
       </c>
       <c r="G22">
-        <v>26.9136203411087</v>
+        <v>26.91362034110865</v>
       </c>
       <c r="H22">
-        <v>20.23662639013912</v>
+        <v>20.23662639013911</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>42.94448743191223</v>
+        <v>42.94448743191228</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,25 +1210,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>24.31577023857656</v>
+        <v>24.31577023857657</v>
       </c>
       <c r="C23">
-        <v>20.13144480994423</v>
+        <v>20.13144480994411</v>
       </c>
       <c r="D23">
-        <v>2.36857660228249</v>
+        <v>2.368576602282489</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>35.52316497554361</v>
+        <v>35.52316497554344</v>
       </c>
       <c r="G23">
-        <v>26.32950487601006</v>
+        <v>26.32950487600993</v>
       </c>
       <c r="H23">
-        <v>19.94382412275181</v>
+        <v>19.94382412275177</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>41.84165232452269</v>
+        <v>41.84165232452258</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,25 +1248,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>22.52457524074636</v>
+        <v>22.52457524074631</v>
       </c>
       <c r="C24">
         <v>18.62803150664186</v>
       </c>
       <c r="D24">
-        <v>2.546592717126248</v>
+        <v>2.546592717126315</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>32.78964902332998</v>
+        <v>32.78964902332997</v>
       </c>
       <c r="G24">
         <v>24.48085265131655</v>
       </c>
       <c r="H24">
-        <v>18.88577239241907</v>
+        <v>18.88577239241909</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>37.73599125607947</v>
+        <v>37.73599125607937</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,25 +1286,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>20.44225902387872</v>
+        <v>20.44225902387871</v>
       </c>
       <c r="C25">
-        <v>16.89115471606026</v>
+        <v>16.89115471606037</v>
       </c>
       <c r="D25">
-        <v>2.727752816280442</v>
+        <v>2.727752816280308</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>29.9273506135769</v>
+        <v>29.92735061357689</v>
       </c>
       <c r="G25">
-        <v>22.54751859467775</v>
+        <v>22.54751859467774</v>
       </c>
       <c r="H25">
-        <v>17.83889994198172</v>
+        <v>17.83889994198175</v>
       </c>
       <c r="I25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_20/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_20/res_line/loading_percent.xlsx
@@ -412,19 +412,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.77756374326406</v>
+        <v>18.77756374326407</v>
       </c>
       <c r="C2">
-        <v>15.51006965195972</v>
+        <v>15.5100696519597</v>
       </c>
       <c r="D2">
-        <v>2.855902309269857</v>
+        <v>2.855902309269856</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>27.80502493749842</v>
+        <v>27.80502493749841</v>
       </c>
       <c r="G2">
         <v>21.1466324741864</v>
@@ -450,25 +450,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.56617476546115</v>
+        <v>17.5661747654611</v>
       </c>
       <c r="C3">
-        <v>14.50892131553888</v>
+        <v>14.50892131553886</v>
       </c>
       <c r="D3">
-        <v>2.940967185289236</v>
+        <v>2.940967185289506</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>26.35805352246789</v>
+        <v>26.35805352246794</v>
       </c>
       <c r="G3">
-        <v>20.21129158123731</v>
+        <v>20.21129158123739</v>
       </c>
       <c r="H3">
-        <v>16.70532083255948</v>
+        <v>16.70532083255962</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -480,7 +480,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>27.6692119845857</v>
+        <v>27.66921198458565</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,25 +488,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.7809912504839</v>
+        <v>16.78099125048389</v>
       </c>
       <c r="C4">
-        <v>13.86168680478676</v>
+        <v>13.861686804787</v>
       </c>
       <c r="D4">
-        <v>2.992705350975048</v>
+        <v>2.992705350974981</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>25.4666357813939</v>
+        <v>25.46663578139375</v>
       </c>
       <c r="G4">
-        <v>19.64455311202105</v>
+        <v>19.64455311202093</v>
       </c>
       <c r="H4">
-        <v>16.45790318850925</v>
+        <v>16.45790318850919</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -518,7 +518,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>26.19050103516897</v>
+        <v>26.1905010351691</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,10 +526,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.45057572666409</v>
+        <v>16.45057572666402</v>
       </c>
       <c r="C5">
-        <v>13.5897119299387</v>
+        <v>13.58971192993857</v>
       </c>
       <c r="D5">
         <v>3.013714809680932</v>
@@ -538,13 +538,13 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>25.10293483403755</v>
+        <v>25.10293483403763</v>
       </c>
       <c r="G5">
-        <v>19.41565804588977</v>
+        <v>19.41565804588987</v>
       </c>
       <c r="H5">
-        <v>16.36168093263863</v>
+        <v>16.36168093263876</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>25.57512556399566</v>
+        <v>25.57512556399563</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,22 +564,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.39507854494015</v>
+        <v>16.39507854494018</v>
       </c>
       <c r="C6">
-        <v>13.54405313897673</v>
+        <v>13.54405313897684</v>
       </c>
       <c r="D6">
-        <v>3.017200258287871</v>
+        <v>3.017200258287737</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>25.04252666906088</v>
+        <v>25.04252666906087</v>
       </c>
       <c r="G6">
-        <v>19.37777960397787</v>
+        <v>19.37777960397785</v>
       </c>
       <c r="H6">
         <v>16.34597675813762</v>
@@ -594,7 +594,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>25.47214423745307</v>
+        <v>25.47214423745304</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,25 +602,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.77657749606799</v>
+        <v>16.77657749606801</v>
       </c>
       <c r="C7">
         <v>13.85805219310244</v>
       </c>
       <c r="D7">
-        <v>2.99298893170536</v>
+        <v>2.992988931705427</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>25.46173209626418</v>
+        <v>25.46173209626421</v>
       </c>
       <c r="G7">
-        <v>19.64145759775069</v>
+        <v>19.64145759775072</v>
       </c>
       <c r="H7">
-        <v>16.45658706980467</v>
+        <v>16.45658706980469</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -632,7 +632,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>26.18225485355087</v>
+        <v>26.18225485355096</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -643,22 +643,22 @@
         <v>18.36843929689148</v>
       </c>
       <c r="C8">
-        <v>15.17159483771984</v>
+        <v>15.17159483771975</v>
       </c>
       <c r="D8">
-        <v>2.885366657044937</v>
+        <v>2.885366657044872</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>27.30687964470761</v>
+        <v>27.30687964470767</v>
       </c>
       <c r="G8">
-        <v>20.82263456684155</v>
+        <v>20.82263456684159</v>
       </c>
       <c r="H8">
-        <v>16.98550128736649</v>
+        <v>16.98550128736655</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>29.20615733980778</v>
+        <v>29.20615733980771</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,10 +678,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>21.16395505717655</v>
+        <v>21.16395505717671</v>
       </c>
       <c r="C9">
-        <v>17.49190169561536</v>
+        <v>17.49190169561533</v>
       </c>
       <c r="D9">
         <v>2.667772926423426</v>
@@ -690,13 +690,13 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>30.89361794633347</v>
+        <v>30.89361794633345</v>
       </c>
       <c r="G9">
-        <v>23.19505993315708</v>
+        <v>23.19505993315704</v>
       </c>
       <c r="H9">
-        <v>18.1799437429212</v>
+        <v>18.17994374292108</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -708,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>34.81784347106855</v>
+        <v>34.81784347106861</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,25 +716,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>23.02247608991183</v>
+        <v>23.02247608991185</v>
       </c>
       <c r="C10">
-        <v>19.04500819007509</v>
+        <v>19.04500819007493</v>
       </c>
       <c r="D10">
-        <v>2.499368895702707</v>
+        <v>2.499368895702708</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>33.50776539189692</v>
+        <v>33.50776539189699</v>
       </c>
       <c r="G10">
-        <v>24.9725955695235</v>
+        <v>24.97259556952354</v>
       </c>
       <c r="H10">
-        <v>19.16492110915373</v>
+        <v>19.16492110915378</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>38.8434241945548</v>
+        <v>38.84342419455476</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,25 +754,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.82628033164539</v>
+        <v>23.82628033164537</v>
       </c>
       <c r="C11">
-        <v>19.71965635842448</v>
+        <v>19.71965635842452</v>
       </c>
       <c r="D11">
-        <v>2.41953720893547</v>
+        <v>2.419537208935468</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>34.70904365788143</v>
+        <v>34.7090436578816</v>
       </c>
       <c r="G11">
-        <v>25.79077457717395</v>
+        <v>25.79077457717404</v>
       </c>
       <c r="H11">
-        <v>19.63973241925602</v>
+        <v>19.63973241925608</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -784,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>40.68427433333945</v>
+        <v>40.68427433333957</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -795,22 +795,22 @@
         <v>24.12471572006244</v>
       </c>
       <c r="C12">
-        <v>19.97062949617201</v>
+        <v>19.97062949617203</v>
       </c>
       <c r="D12">
-        <v>2.388689181013797</v>
+        <v>2.388689181013731</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>35.20401677162262</v>
+        <v>35.20401677162261</v>
       </c>
       <c r="G12">
-        <v>26.10231593112283</v>
+        <v>26.10231593112279</v>
       </c>
       <c r="H12">
-        <v>19.82376475449975</v>
+        <v>19.82376475449968</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>41.38636687391839</v>
+        <v>41.38636687391842</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,25 +830,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>24.06070644231056</v>
+        <v>24.06070644231068</v>
       </c>
       <c r="C13">
-        <v>19.91677691381432</v>
+        <v>19.91677691381424</v>
       </c>
       <c r="D13">
-        <v>2.395363264761659</v>
+        <v>2.395363264761524</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>35.09749147206112</v>
+        <v>35.09749147206126</v>
       </c>
       <c r="G13">
-        <v>26.03513638901767</v>
+        <v>26.03513638901772</v>
       </c>
       <c r="H13">
-        <v>19.7839343836808</v>
+        <v>19.78393438368081</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>41.23486500565163</v>
+        <v>41.23486500565179</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,10 +868,10 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.85095183833452</v>
+        <v>23.85095183833445</v>
       </c>
       <c r="C14">
-        <v>19.74039384008231</v>
+        <v>19.74039384008241</v>
       </c>
       <c r="D14">
         <v>2.417012742479963</v>
@@ -880,13 +880,13 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>34.74980079668374</v>
+        <v>34.74980079668384</v>
       </c>
       <c r="G14">
-        <v>25.81636834659285</v>
+        <v>25.81636834659292</v>
       </c>
       <c r="H14">
-        <v>19.6547854035698</v>
+        <v>19.65478540356989</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>40.74191048092688</v>
+        <v>40.7419104809269</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,25 +906,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23.72169735290984</v>
+        <v>23.7216973529099</v>
       </c>
       <c r="C15">
-        <v>19.63177021269702</v>
+        <v>19.63177021269722</v>
       </c>
       <c r="D15">
-        <v>2.430187924560798</v>
+        <v>2.43018792456073</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>34.53854856072322</v>
+        <v>34.53854856072326</v>
       </c>
       <c r="G15">
-        <v>25.68260289542841</v>
+        <v>25.68260289542844</v>
       </c>
       <c r="H15">
-        <v>19.57624256978169</v>
+        <v>19.57624256978171</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -936,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>40.44074137461858</v>
+        <v>40.44074137461848</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,25 +944,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.96911149371611</v>
+        <v>22.96911149371621</v>
       </c>
       <c r="C16">
-        <v>19.0002840984312</v>
+        <v>19.00028409843137</v>
       </c>
       <c r="D16">
-        <v>2.504509020007921</v>
+        <v>2.504509020007721</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>33.43017057804468</v>
+        <v>33.43017057804478</v>
       </c>
       <c r="G16">
-        <v>24.91934339351197</v>
+        <v>24.91934339351199</v>
       </c>
       <c r="H16">
-        <v>19.13445953425236</v>
+        <v>19.13445953425233</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>38.72359691239771</v>
+        <v>38.72359691239781</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,25 +982,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>22.49679250070405</v>
+        <v>22.49679250070402</v>
       </c>
       <c r="C17">
-        <v>18.6047842995052</v>
+        <v>18.6047842995053</v>
       </c>
       <c r="D17">
-        <v>2.549180189967825</v>
+        <v>2.549180189967955</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>32.74996351395021</v>
+        <v>32.74996351395035</v>
       </c>
       <c r="G17">
-        <v>24.45374976046833</v>
+        <v>24.45374976046844</v>
       </c>
       <c r="H17">
-        <v>18.87052858483807</v>
+        <v>18.87052858483816</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>37.67487365075285</v>
+        <v>37.67487365075282</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,25 +1020,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>22.22120543057405</v>
+        <v>22.2212054305741</v>
       </c>
       <c r="C18">
-        <v>18.37429884385731</v>
+        <v>18.37429884385734</v>
       </c>
       <c r="D18">
-        <v>2.574581682781419</v>
+        <v>2.574581682781618</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>32.35850398951978</v>
+        <v>32.35850398951987</v>
       </c>
       <c r="G18">
-        <v>24.18682440976879</v>
+        <v>24.18682440976886</v>
       </c>
       <c r="H18">
-        <v>18.7212107199025</v>
+        <v>18.72121071990255</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>37.07230752668752</v>
+        <v>37.07230752668749</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,22 +1058,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>22.12722129287235</v>
+        <v>22.1272212928724</v>
       </c>
       <c r="C19">
-        <v>18.29574189586123</v>
+        <v>18.29574189586128</v>
       </c>
       <c r="D19">
-        <v>2.583136031054932</v>
+        <v>2.583136031054931</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>32.22591429240227</v>
+        <v>32.22591429240224</v>
       </c>
       <c r="G19">
-        <v>24.09659011239152</v>
+        <v>24.0965901123915</v>
       </c>
       <c r="H19">
         <v>18.67107167352058</v>
@@ -1088,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>36.86830514251985</v>
+        <v>36.86830514251987</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,25 +1096,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>22.54747718510247</v>
+        <v>22.54747718510251</v>
       </c>
       <c r="C20">
-        <v>18.64719627645135</v>
+        <v>18.64719627645133</v>
       </c>
       <c r="D20">
-        <v>2.544456087485081</v>
+        <v>2.544456087485147</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>32.82239321823585</v>
+        <v>32.82239321823589</v>
       </c>
       <c r="G20">
-        <v>24.50322084236724</v>
+        <v>24.50322084236728</v>
       </c>
       <c r="H20">
-        <v>18.89836453411855</v>
+        <v>18.89836453411858</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1126,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>37.78642405718939</v>
+        <v>37.78642405718941</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,25 +1134,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.91272305595879</v>
+        <v>23.91272305595889</v>
       </c>
       <c r="C21">
-        <v>19.79232337303123</v>
+        <v>19.79232337303108</v>
       </c>
       <c r="D21">
-        <v>2.410671977540979</v>
+        <v>2.41067197754091</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>34.85197376042146</v>
+        <v>34.85197376042152</v>
       </c>
       <c r="G21">
-        <v>25.88057572329622</v>
+        <v>25.88057572329626</v>
       </c>
       <c r="H21">
-        <v>19.69260104416841</v>
+        <v>19.69260104416842</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1164,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>40.8865323739162</v>
+        <v>40.88653237391618</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,25 +1172,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>24.77032108186076</v>
+        <v>24.77032108186077</v>
       </c>
       <c r="C22">
-        <v>20.51452379968768</v>
+        <v>20.51452379968782</v>
       </c>
       <c r="D22">
-        <v>2.31952874261868</v>
+        <v>2.319528742618613</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>36.28981105979886</v>
+        <v>36.28981105979891</v>
       </c>
       <c r="G22">
-        <v>26.91362034110865</v>
+        <v>26.9136203411087</v>
       </c>
       <c r="H22">
-        <v>20.23662639013911</v>
+        <v>20.23662639013912</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>42.94448743191228</v>
+        <v>42.94448743191223</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,25 +1210,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>24.31577023857657</v>
+        <v>24.31577023857656</v>
       </c>
       <c r="C23">
-        <v>20.13144480994411</v>
+        <v>20.13144480994423</v>
       </c>
       <c r="D23">
-        <v>2.368576602282489</v>
+        <v>2.36857660228249</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>35.52316497554344</v>
+        <v>35.52316497554361</v>
       </c>
       <c r="G23">
-        <v>26.32950487600993</v>
+        <v>26.32950487601006</v>
       </c>
       <c r="H23">
-        <v>19.94382412275177</v>
+        <v>19.94382412275181</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>41.84165232452258</v>
+        <v>41.84165232452269</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,25 +1248,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>22.52457524074631</v>
+        <v>22.52457524074636</v>
       </c>
       <c r="C24">
         <v>18.62803150664186</v>
       </c>
       <c r="D24">
-        <v>2.546592717126315</v>
+        <v>2.546592717126248</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>32.78964902332997</v>
+        <v>32.78964902332998</v>
       </c>
       <c r="G24">
         <v>24.48085265131655</v>
       </c>
       <c r="H24">
-        <v>18.88577239241909</v>
+        <v>18.88577239241907</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>37.73599125607937</v>
+        <v>37.73599125607947</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,25 +1286,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>20.44225902387871</v>
+        <v>20.44225902387872</v>
       </c>
       <c r="C25">
-        <v>16.89115471606037</v>
+        <v>16.89115471606026</v>
       </c>
       <c r="D25">
-        <v>2.727752816280308</v>
+        <v>2.727752816280442</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>29.92735061357689</v>
+        <v>29.9273506135769</v>
       </c>
       <c r="G25">
-        <v>22.54751859467774</v>
+        <v>22.54751859467775</v>
       </c>
       <c r="H25">
-        <v>17.83889994198175</v>
+        <v>17.83889994198172</v>
       </c>
       <c r="I25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_20/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_20/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,34 +406,37 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.77756374326407</v>
+        <v>18.77693689327754</v>
       </c>
       <c r="C2">
-        <v>15.5100696519597</v>
+        <v>15.50626450565946</v>
       </c>
       <c r="D2">
-        <v>2.855902309269856</v>
+        <v>2.856126256168602</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>27.80502493749841</v>
+        <v>27.78631385644939</v>
       </c>
       <c r="G2">
-        <v>21.1466324741864</v>
+        <v>20.14654002729438</v>
       </c>
       <c r="H2">
-        <v>17.13907792616711</v>
+        <v>21.18029122142559</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>17.12637380162497</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -442,36 +445,39 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>30.00109283227557</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>30.00093050073363</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.5661747654611</v>
+        <v>17.56573461149803</v>
       </c>
       <c r="C3">
-        <v>14.50892131553886</v>
+        <v>14.50555758026659</v>
       </c>
       <c r="D3">
-        <v>2.940967185289506</v>
+        <v>2.940991185991489</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>26.35805352246794</v>
+        <v>26.34060676276863</v>
       </c>
       <c r="G3">
-        <v>20.21129158123739</v>
+        <v>18.96303886084351</v>
       </c>
       <c r="H3">
-        <v>16.70532083255962</v>
+        <v>20.24353050258898</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>16.69365708286718</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -480,36 +486,39 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>27.66921198458565</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>27.66911144897088</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.78099125048389</v>
+        <v>16.78066759891167</v>
       </c>
       <c r="C4">
-        <v>13.861686804787</v>
+        <v>13.85860531601653</v>
       </c>
       <c r="D4">
-        <v>2.992705350974981</v>
+        <v>2.992605770923761</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>25.46663578139375</v>
+        <v>25.44999140156035</v>
       </c>
       <c r="G4">
-        <v>19.64455311202093</v>
+        <v>18.22863789019346</v>
       </c>
       <c r="H4">
-        <v>16.45790318850919</v>
+        <v>19.67595205121207</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>16.446893198274</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -518,36 +527,39 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>26.1905010351691</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>26.19043303314327</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.45057572666402</v>
+        <v>16.45030022953298</v>
       </c>
       <c r="C5">
-        <v>13.58971192993857</v>
+        <v>13.58674858427682</v>
       </c>
       <c r="D5">
-        <v>3.013714809680932</v>
+        <v>3.013564573567262</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>25.10293483403763</v>
+        <v>25.08662405768541</v>
       </c>
       <c r="G5">
-        <v>19.41565804588987</v>
+        <v>17.92762934129758</v>
       </c>
       <c r="H5">
-        <v>16.36168093263876</v>
+        <v>19.44672312185877</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>16.35094063655386</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -556,36 +568,39 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>25.57512556399563</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>25.57506971734768</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.39507854494018</v>
+        <v>16.39481109106561</v>
       </c>
       <c r="C6">
-        <v>13.54405313897684</v>
+        <v>13.54110960879765</v>
       </c>
       <c r="D6">
-        <v>3.017200258287737</v>
+        <v>3.01704159045655</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>25.04252666906087</v>
+        <v>25.02627168719164</v>
       </c>
       <c r="G6">
-        <v>19.37777960397785</v>
+        <v>17.87755016521039</v>
       </c>
       <c r="H6">
-        <v>16.34597675813762</v>
+        <v>19.40878976509163</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>16.33528142763858</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -594,36 +609,39 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>25.47214423745304</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>25.47209034911552</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.77657749606801</v>
+        <v>16.77625449089394</v>
       </c>
       <c r="C7">
-        <v>13.85805219310244</v>
+        <v>13.85497228458594</v>
       </c>
       <c r="D7">
-        <v>2.992988931705427</v>
+        <v>2.992888669798668</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>25.46173209626421</v>
+        <v>25.44509218868985</v>
       </c>
       <c r="G7">
-        <v>19.64145759775072</v>
+        <v>18.22458506507162</v>
       </c>
       <c r="H7">
-        <v>16.45658706980469</v>
+        <v>19.67285199958566</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>16.44558070414856</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -632,36 +650,39 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>26.18225485355096</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>26.18218701961975</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>18.36843929689148</v>
+        <v>18.36787655514038</v>
       </c>
       <c r="C8">
-        <v>15.17159483771975</v>
+        <v>15.16793974188751</v>
       </c>
       <c r="D8">
-        <v>2.885366657044872</v>
+        <v>2.88552177210332</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>27.30687964470767</v>
+        <v>27.28859916831275</v>
       </c>
       <c r="G8">
-        <v>20.82263456684159</v>
+        <v>19.74016969823292</v>
       </c>
       <c r="H8">
-        <v>16.98550128736655</v>
+        <v>20.85579741243471</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>16.97315250931844</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -670,36 +691,39 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>29.20615733980771</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>29.20601761287282</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>21.16395505717671</v>
+        <v>21.16292786138257</v>
       </c>
       <c r="C9">
-        <v>17.49190169561533</v>
+        <v>17.48719429632663</v>
       </c>
       <c r="D9">
-        <v>2.667772926423426</v>
+        <v>2.668427297494908</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>30.89361794633345</v>
+        <v>30.87231748156859</v>
       </c>
       <c r="G9">
-        <v>23.19505993315704</v>
+        <v>22.64669136464199</v>
       </c>
       <c r="H9">
-        <v>18.17994374292108</v>
+        <v>23.23192620086353</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>18.16509835328256</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -708,36 +732,39 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>34.81784347106861</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>34.8175040584779</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>23.02247608991185</v>
+        <v>23.02109816956014</v>
       </c>
       <c r="C10">
-        <v>19.04500819007493</v>
+        <v>19.03955478800222</v>
       </c>
       <c r="D10">
-        <v>2.499368895702708</v>
+        <v>2.500397550001166</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>33.50776539189699</v>
+        <v>33.48434265859767</v>
       </c>
       <c r="G10">
-        <v>24.97259556952354</v>
+        <v>24.75146332357676</v>
       </c>
       <c r="H10">
-        <v>19.16492110915378</v>
+        <v>25.01230992762336</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>19.14833897249062</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -746,36 +773,39 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>38.84342419455476</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>38.84286994927892</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.82628033164537</v>
+        <v>23.82473774846253</v>
       </c>
       <c r="C11">
-        <v>19.71965635842452</v>
+        <v>19.71386489805698</v>
       </c>
       <c r="D11">
-        <v>2.419537208935468</v>
+        <v>2.420740240635264</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>34.7090436578816</v>
+        <v>34.68419795683756</v>
       </c>
       <c r="G11">
-        <v>25.79077457717404</v>
+        <v>25.75152454176003</v>
       </c>
       <c r="H11">
-        <v>19.63973241925608</v>
+        <v>25.8318110757303</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>19.622381403858</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -784,36 +814,39 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>40.68427433333957</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>40.68359532766415</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>24.12471572006244</v>
+        <v>24.12310976699975</v>
       </c>
       <c r="C12">
-        <v>19.97062949617203</v>
+        <v>19.96470977136405</v>
       </c>
       <c r="D12">
-        <v>2.388689181013731</v>
+        <v>2.389959108662042</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>35.20401677162261</v>
+        <v>35.1788177226168</v>
       </c>
       <c r="G12">
-        <v>26.10231593112279</v>
+        <v>26.12895899583601</v>
       </c>
       <c r="H12">
-        <v>19.82376475449968</v>
+        <v>26.14385701044296</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>19.80612536094966</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -822,36 +855,39 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>41.38636687391842</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>41.38563505641545</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>24.06070644231068</v>
+        <v>24.05911418700432</v>
       </c>
       <c r="C13">
-        <v>19.91677691381424</v>
+        <v>19.91088483178268</v>
       </c>
       <c r="D13">
-        <v>2.395363264761524</v>
+        <v>2.396618741702469</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>35.09749147206126</v>
+        <v>35.07236853380767</v>
       </c>
       <c r="G13">
-        <v>26.03513638901772</v>
+        <v>26.04771799001772</v>
       </c>
       <c r="H13">
-        <v>19.78393438368081</v>
+        <v>26.07656862007712</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>19.76635698096597</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -860,36 +896,39 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>41.23486500565179</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>41.23414484555341</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.85095183833445</v>
+        <v>23.84940406372876</v>
       </c>
       <c r="C14">
-        <v>19.74039384008241</v>
+        <v>19.73459183504681</v>
       </c>
       <c r="D14">
-        <v>2.417012742479963</v>
+        <v>2.418221258648298</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>34.74980079668384</v>
+        <v>34.72492602851527</v>
       </c>
       <c r="G14">
-        <v>25.81636834659292</v>
+        <v>25.78259812587168</v>
       </c>
       <c r="H14">
-        <v>19.65478540356989</v>
+        <v>25.85744627759543</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>19.63741060987662</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -898,36 +937,39 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>40.7419104809269</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>40.74122725454711</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23.7216973529099</v>
+        <v>23.72017668298114</v>
       </c>
       <c r="C15">
-        <v>19.63177021269722</v>
+        <v>19.62602333593148</v>
       </c>
       <c r="D15">
-        <v>2.43018792456073</v>
+        <v>2.431367797529025</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>34.53854856072326</v>
+        <v>34.51429817309627</v>
       </c>
       <c r="G15">
-        <v>25.68260289542844</v>
+        <v>25.62005773638361</v>
       </c>
       <c r="H15">
-        <v>19.57624256978171</v>
+        <v>25.72346432347241</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>19.55899222963742</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -936,36 +978,39 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>40.44074137461848</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>40.44007998248096</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.96911149371621</v>
+        <v>22.96774420819311</v>
       </c>
       <c r="C16">
-        <v>19.00028409843137</v>
+        <v>18.99485277957098</v>
       </c>
       <c r="D16">
-        <v>2.504509020007721</v>
+        <v>2.505526382810498</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>33.43017057804478</v>
+        <v>33.40681029733909</v>
       </c>
       <c r="G16">
-        <v>24.91934339351199</v>
+        <v>24.68589806877377</v>
       </c>
       <c r="H16">
-        <v>19.13445953425233</v>
+        <v>24.95897188479911</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>19.11792805472852</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -974,36 +1019,39 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>38.72359691239781</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>38.72305014995073</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>22.49679250070402</v>
+        <v>22.49551781024847</v>
       </c>
       <c r="C17">
-        <v>18.6047842995053</v>
+        <v>18.59954660702561</v>
       </c>
       <c r="D17">
-        <v>2.549180189967955</v>
+        <v>2.550099084725902</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>32.74996351395035</v>
+        <v>32.72715184249527</v>
       </c>
       <c r="G17">
-        <v>24.45374976046844</v>
+        <v>24.13749435851962</v>
       </c>
       <c r="H17">
-        <v>18.87052858483816</v>
+        <v>24.49262869397758</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>18.85444341438987</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1012,36 +1060,39 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>37.67487365075282</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>37.67438931335121</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>22.2212054305741</v>
+        <v>22.21998353501645</v>
       </c>
       <c r="C18">
-        <v>18.37429884385734</v>
+        <v>18.36917267191786</v>
       </c>
       <c r="D18">
-        <v>2.574581682781618</v>
+        <v>2.575444308990739</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>32.35850398951987</v>
+        <v>32.33600910709998</v>
       </c>
       <c r="G18">
-        <v>24.18682440976886</v>
+        <v>23.82368206220915</v>
       </c>
       <c r="H18">
-        <v>18.72121071990255</v>
+        <v>24.22527469849302</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>18.70538427700236</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1050,36 +1101,39 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>37.07230752668749</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>37.07185668359222</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>22.1272212928724</v>
+        <v>22.12601720127648</v>
       </c>
       <c r="C19">
-        <v>18.29574189586128</v>
+        <v>18.29065352123994</v>
       </c>
       <c r="D19">
-        <v>2.583136031054931</v>
+        <v>2.58397966162821</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>32.22591429240224</v>
+        <v>32.2035269087464</v>
       </c>
       <c r="G19">
-        <v>24.0965901123915</v>
+        <v>23.71732907530397</v>
       </c>
       <c r="H19">
-        <v>18.67107167352058</v>
+        <v>24.13489569539614</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>18.65533318277666</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1088,36 +1142,39 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>36.86830514251987</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>36.86786526551871</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>22.54747718510251</v>
+        <v>22.54619268763921</v>
       </c>
       <c r="C20">
-        <v>18.64719627645133</v>
+        <v>18.64193795936886</v>
       </c>
       <c r="D20">
-        <v>2.544456087485147</v>
+        <v>2.545385424527414</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>32.82239321823589</v>
+        <v>32.7995230240119</v>
       </c>
       <c r="G20">
-        <v>24.50322084236728</v>
+        <v>24.19552808352691</v>
       </c>
       <c r="H20">
-        <v>18.89836453411858</v>
+        <v>24.54217931067043</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>18.88223164512915</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1126,36 +1183,39 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>37.78642405718941</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>37.78593333385278</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.91272305595889</v>
+        <v>23.91116224622309</v>
       </c>
       <c r="C21">
-        <v>19.79232337303108</v>
+        <v>19.78649492076111</v>
       </c>
       <c r="D21">
-        <v>2.41067197754091</v>
+        <v>2.411894261291507</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>34.85197376042152</v>
+        <v>34.82702610304398</v>
       </c>
       <c r="G21">
-        <v>25.88057572329626</v>
+        <v>25.86049967596185</v>
       </c>
       <c r="H21">
-        <v>19.69260104416842</v>
+        <v>25.92175761281052</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>19.67516666727714</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1164,36 +1224,39 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>40.88653237391618</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>40.88583846781262</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>24.77032108186077</v>
+        <v>24.76857361650785</v>
       </c>
       <c r="C22">
-        <v>20.51452379968782</v>
+        <v>20.50832102526876</v>
       </c>
       <c r="D22">
-        <v>2.319528742618613</v>
+        <v>2.320947696267467</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>36.28981105979891</v>
+        <v>36.26383390164366</v>
       </c>
       <c r="G22">
-        <v>26.9136203411087</v>
+        <v>26.95742272337975</v>
       </c>
       <c r="H22">
-        <v>20.23662639013912</v>
+        <v>26.84179521601486</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>20.21835728906376</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1202,36 +1265,39 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>42.94448743191223</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>42.94362679855089</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>24.31577023857656</v>
+        <v>24.31412304981001</v>
       </c>
       <c r="C23">
-        <v>20.13144480994423</v>
+        <v>20.12544213666716</v>
       </c>
       <c r="D23">
-        <v>2.36857660228249</v>
+        <v>2.369890003196955</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>35.52316497554361</v>
+        <v>35.49773767053133</v>
       </c>
       <c r="G23">
-        <v>26.32950487601006</v>
+        <v>26.37239542956997</v>
       </c>
       <c r="H23">
-        <v>19.94382412275181</v>
+        <v>26.34587694959682</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>19.92599923746686</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1240,36 +1306,39 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>41.84165232452269</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>41.84088457951123</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>22.52457524074636</v>
+        <v>22.52329517837843</v>
       </c>
       <c r="C24">
-        <v>18.62803150664186</v>
+        <v>18.62278251328071</v>
       </c>
       <c r="D24">
-        <v>2.546592717126248</v>
+        <v>2.547517332166068</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>32.78964902332998</v>
+        <v>32.76680528286075</v>
       </c>
       <c r="G24">
-        <v>24.48085265131655</v>
+        <v>24.16929316174651</v>
       </c>
       <c r="H24">
-        <v>18.88577239241907</v>
+        <v>24.51977515482394</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>18.86966107030483</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1278,36 +1347,39 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>37.73599125607947</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>37.73550342716857</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>20.44225902387872</v>
+        <v>20.44135817039578</v>
       </c>
       <c r="C25">
-        <v>16.89115471606026</v>
+        <v>16.88672579579374</v>
       </c>
       <c r="D25">
-        <v>2.727752816280442</v>
+        <v>2.728271519814583</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>29.9273506135769</v>
+        <v>29.906847928379</v>
       </c>
       <c r="G25">
-        <v>22.54751859467775</v>
+        <v>21.86760444623675</v>
       </c>
       <c r="H25">
-        <v>17.83889994198172</v>
+        <v>22.58335982390556</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>17.8247134100323</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1316,7 +1388,10 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>33.32518433042722</v>
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>33.32490788403062</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_20/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_20/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.77693689327754</v>
+        <v>20.239780944067</v>
       </c>
       <c r="C2">
-        <v>15.50626450565946</v>
+        <v>13.66314778484962</v>
       </c>
       <c r="D2">
-        <v>2.856126256168602</v>
+        <v>5.510807331104654</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>27.78631385644939</v>
+        <v>39.69089266796313</v>
       </c>
       <c r="G2">
-        <v>20.14654002729438</v>
+        <v>2.091110560564717</v>
       </c>
       <c r="H2">
-        <v>21.18029122142559</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>17.12637380162497</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>8.30289804152037</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>17.63886095671541</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>30.00093050073363</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>28.00468351752496</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.56573461149803</v>
+        <v>18.79770198201393</v>
       </c>
       <c r="C3">
-        <v>14.50555758026659</v>
+        <v>12.70083392506601</v>
       </c>
       <c r="D3">
-        <v>2.940991185991489</v>
+        <v>5.247818909875311</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>26.34060676276863</v>
+        <v>38.10226077600883</v>
       </c>
       <c r="G3">
-        <v>18.96303886084351</v>
+        <v>2.10190121287738</v>
       </c>
       <c r="H3">
-        <v>20.24353050258898</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>16.69365708286718</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>8.028441780316111</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>16.39765851122678</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>27.66911144897088</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>27.05998846665225</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.78066759891167</v>
+        <v>17.86706046510557</v>
       </c>
       <c r="C4">
-        <v>13.85860531601653</v>
+        <v>12.07951443284037</v>
       </c>
       <c r="D4">
-        <v>2.992605770923761</v>
+        <v>5.082772485246704</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>25.44999140156035</v>
+        <v>37.13836292620387</v>
       </c>
       <c r="G4">
-        <v>18.22863789019346</v>
+        <v>2.108664709997383</v>
       </c>
       <c r="H4">
-        <v>19.67595205121207</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>16.446893198274</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>7.862767784938073</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>15.59610075427439</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>26.19043303314327</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>26.49495686228882</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.45030022953298</v>
+        <v>17.47629274446101</v>
       </c>
       <c r="C5">
-        <v>13.58674858427682</v>
+        <v>11.81853566738577</v>
       </c>
       <c r="D5">
-        <v>3.013564573567262</v>
+        <v>5.014698102887237</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>25.08662405768541</v>
+        <v>36.74873666217687</v>
       </c>
       <c r="G5">
-        <v>17.92762934129758</v>
+        <v>2.111458388486157</v>
       </c>
       <c r="H5">
-        <v>19.44672312185877</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>16.35094063655386</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>7.796012028262064</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>15.25938034213235</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>25.57506971734768</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>26.26854417930781</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.39481109106561</v>
+        <v>17.41070574276831</v>
       </c>
       <c r="C6">
-        <v>13.54110960879765</v>
+        <v>11.77472649233106</v>
       </c>
       <c r="D6">
-        <v>3.01704159045655</v>
+        <v>5.003347761679487</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>25.02627168719164</v>
+        <v>36.68423984878527</v>
       </c>
       <c r="G6">
-        <v>17.87755016521039</v>
+        <v>2.111924619072886</v>
       </c>
       <c r="H6">
-        <v>19.40878976509163</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>16.33528142763858</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>7.784974419959411</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>15.20285497431277</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>25.47209034911552</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>26.23118279049996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.77625449089394</v>
+        <v>17.86183729185177</v>
       </c>
       <c r="C7">
-        <v>13.85497228458594</v>
+        <v>12.07602647098309</v>
       </c>
       <c r="D7">
-        <v>2.992888669798668</v>
+        <v>5.081857597970095</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>25.44509218868985</v>
+        <v>37.13309506022612</v>
       </c>
       <c r="G7">
-        <v>18.22458506507162</v>
+        <v>2.108702231154445</v>
       </c>
       <c r="H7">
-        <v>19.67285199958566</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>16.44558070414856</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>7.861864364248492</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>15.59160063754524</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>26.18218701961975</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>26.49188772617795</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>18.36787655514038</v>
+        <v>19.75183294320822</v>
       </c>
       <c r="C8">
-        <v>15.16793974188751</v>
+        <v>13.33758328966614</v>
       </c>
       <c r="D8">
-        <v>2.88552177210332</v>
+        <v>5.420913826261035</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>27.28859916831275</v>
+        <v>39.14088481856399</v>
       </c>
       <c r="G8">
-        <v>19.74016969823292</v>
+        <v>2.094804296360887</v>
       </c>
       <c r="H8">
-        <v>20.85579741243471</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>16.97315250931844</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>8.207698809679984</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>17.2189849467485</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>29.20601761287282</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>27.67587069256671</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>21.16292786138257</v>
+        <v>23.1074936812275</v>
       </c>
       <c r="C9">
-        <v>17.48719429632663</v>
+        <v>15.57608477408404</v>
       </c>
       <c r="D9">
-        <v>2.668427297494908</v>
+        <v>6.054714541060909</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>30.87231748156859</v>
+        <v>43.16116775948004</v>
       </c>
       <c r="G9">
-        <v>22.64669136464199</v>
+        <v>2.068505490363645</v>
       </c>
       <c r="H9">
-        <v>23.23192620086353</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>18.16509835328256</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>8.90703256926035</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>20.1049077091036</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>34.8175040584779</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>30.11520489980149</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>23.02109816956014</v>
+        <v>25.37172203186702</v>
       </c>
       <c r="C10">
-        <v>19.03955478800222</v>
+        <v>17.08672266555361</v>
       </c>
       <c r="D10">
-        <v>2.500397550001166</v>
+        <v>6.498835195777453</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>33.48434265859767</v>
+        <v>46.16044913251356</v>
       </c>
       <c r="G10">
-        <v>24.75146332357676</v>
+        <v>2.049547004290499</v>
       </c>
       <c r="H10">
-        <v>25.01230992762336</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>19.14833897249062</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>9.432777659970057</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>22.05070877271597</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>38.84286994927892</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>31.97991561044596</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.82473774846253</v>
+        <v>26.36131205969025</v>
       </c>
       <c r="C11">
-        <v>19.71386489805698</v>
+        <v>17.74724708803523</v>
       </c>
       <c r="D11">
-        <v>2.420740240635264</v>
+        <v>6.695958436588653</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>34.68419795683756</v>
+        <v>47.53581091825455</v>
       </c>
       <c r="G11">
-        <v>25.75152454176003</v>
+        <v>2.040944554897798</v>
       </c>
       <c r="H11">
-        <v>25.8318110757303</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>19.622381403858</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>9.674666893189935</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>22.90093133243264</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>40.68359532766415</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>32.8452492430629</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>24.12310976699975</v>
+        <v>26.73053756915284</v>
       </c>
       <c r="C12">
-        <v>19.96470977136405</v>
+        <v>17.99376088581201</v>
       </c>
       <c r="D12">
-        <v>2.389959108662042</v>
+        <v>6.769896310973602</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>35.1788177226168</v>
+        <v>48.05844196432966</v>
       </c>
       <c r="G12">
-        <v>26.12895899583601</v>
+        <v>2.037684703078691</v>
       </c>
       <c r="H12">
-        <v>26.14385701044296</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>19.80612536094966</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>9.766691030317329</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>23.21813925375023</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>41.38563505641545</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>33.17557821535328</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>24.05911418700432</v>
+        <v>26.65125812593786</v>
       </c>
       <c r="C13">
-        <v>19.91088483178268</v>
+        <v>17.94082654156519</v>
       </c>
       <c r="D13">
-        <v>2.396618741702469</v>
+        <v>6.754003861417317</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>35.07236853380767</v>
+        <v>47.94579826511748</v>
       </c>
       <c r="G13">
-        <v>26.04771799001772</v>
+        <v>2.038386967089566</v>
       </c>
       <c r="H13">
-        <v>26.07656862007712</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>19.76635698096597</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>9.7468522536074</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>23.15002958079348</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>41.23414484555341</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>33.10431432126855</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.84940406372876</v>
+        <v>26.39179704406106</v>
       </c>
       <c r="C14">
-        <v>19.73459183504681</v>
+        <v>17.767598948637</v>
       </c>
       <c r="D14">
-        <v>2.418221258648298</v>
+        <v>6.702055511271886</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>34.72492602851527</v>
+        <v>47.57876995971685</v>
       </c>
       <c r="G14">
-        <v>25.78259812587168</v>
+        <v>2.04067644467283</v>
       </c>
       <c r="H14">
-        <v>25.85744627759543</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>19.63741060987662</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>9.68222896115299</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>22.92712180895101</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>40.74122725454711</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>32.87237117899726</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23.72017668298114</v>
+        <v>26.23216157782543</v>
       </c>
       <c r="C15">
-        <v>19.62602333593148</v>
+        <v>17.66102868918939</v>
       </c>
       <c r="D15">
-        <v>2.431367797529025</v>
+        <v>6.670143559433503</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>34.51429817309627</v>
+        <v>47.35419968346049</v>
       </c>
       <c r="G15">
-        <v>25.62005773638361</v>
+        <v>2.042078343301864</v>
       </c>
       <c r="H15">
-        <v>25.72346432347241</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>19.55899222963742</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>9.642702198255733</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>22.78997397275093</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>40.44007998248096</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>32.73065100714528</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.96774420819311</v>
+        <v>25.30626157836284</v>
       </c>
       <c r="C16">
-        <v>18.99485277957098</v>
+        <v>17.04303756978094</v>
       </c>
       <c r="D16">
-        <v>2.505526382810498</v>
+        <v>6.485853405703783</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>33.40681029733909</v>
+        <v>46.07080370749821</v>
       </c>
       <c r="G16">
-        <v>24.68589806877377</v>
+        <v>2.050109186657093</v>
       </c>
       <c r="H16">
-        <v>24.95897188479911</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>19.11792805472852</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>9.417026868359866</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>21.9944641852504</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>38.72305014995073</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>31.92372196830065</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>22.49551781024847</v>
+        <v>24.72810254444151</v>
       </c>
       <c r="C17">
-        <v>18.59954660702561</v>
+        <v>16.65723889717003</v>
       </c>
       <c r="D17">
-        <v>2.550099084725902</v>
+        <v>6.371533718456524</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>32.72715184249527</v>
+        <v>45.28641656031363</v>
       </c>
       <c r="G17">
-        <v>24.13749435851962</v>
+        <v>2.055037808381892</v>
       </c>
       <c r="H17">
-        <v>24.49262869397758</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>18.85444341438987</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>9.279297614477377</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>21.49768022244535</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>37.67438931335121</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>31.43317934070276</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>22.21998353501645</v>
+        <v>24.39173622820283</v>
       </c>
       <c r="C18">
-        <v>18.36917267191786</v>
+        <v>16.43281234938604</v>
       </c>
       <c r="D18">
-        <v>2.575444308990739</v>
+        <v>6.305317213052759</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>32.33600910709998</v>
+        <v>44.83626893199991</v>
       </c>
       <c r="G18">
-        <v>23.82368206220915</v>
+        <v>2.057875044586731</v>
       </c>
       <c r="H18">
-        <v>24.22527469849302</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>18.70538427700236</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>9.200332576779525</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>21.20863732990051</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>37.07185668359222</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>31.15262256977831</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>22.12601720127648</v>
+        <v>24.27718292547655</v>
       </c>
       <c r="C19">
-        <v>18.29065352123994</v>
+        <v>16.35638528538226</v>
       </c>
       <c r="D19">
-        <v>2.58397966162821</v>
+        <v>6.282818253230031</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>32.2035269087464</v>
+        <v>44.6840254046138</v>
       </c>
       <c r="G19">
-        <v>23.71732907530397</v>
+        <v>2.058836254012062</v>
       </c>
       <c r="H19">
-        <v>24.13489569539614</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>18.65533318277666</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>9.173639180432437</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>21.11019685817077</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>36.86786526551871</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>31.05789950373554</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>22.54619268763921</v>
+        <v>24.79004232108919</v>
       </c>
       <c r="C20">
-        <v>18.64193795936886</v>
+        <v>16.69856766024542</v>
       </c>
       <c r="D20">
-        <v>2.545385424527414</v>
+        <v>6.383751209556683</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>32.7995230240119</v>
+        <v>45.36981000273983</v>
       </c>
       <c r="G20">
-        <v>24.19552808352691</v>
+        <v>2.054512934403697</v>
       </c>
       <c r="H20">
-        <v>24.54217931067043</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>18.88223164512915</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>9.293932749458643</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>21.55090401464492</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>37.78593333385278</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>31.4852327175359</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.91116224622309</v>
+        <v>26.46815401922982</v>
       </c>
       <c r="C21">
-        <v>19.78649492076111</v>
+        <v>17.81857621668429</v>
       </c>
       <c r="D21">
-        <v>2.411894261291507</v>
+        <v>6.71733317627456</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>34.82702610304398</v>
+        <v>47.68652336672228</v>
       </c>
       <c r="G21">
-        <v>25.86049967596185</v>
+        <v>2.040004078865899</v>
       </c>
       <c r="H21">
-        <v>25.92175761281052</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>19.67516666727714</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>9.701198443485962</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>22.99272189984097</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>40.88583846781262</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>32.9404247449447</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>24.76857361650785</v>
+        <v>27.5329451292286</v>
       </c>
       <c r="C22">
-        <v>20.50832102526876</v>
+        <v>18.52963504966898</v>
       </c>
       <c r="D22">
-        <v>2.320947696267467</v>
+        <v>6.931228075870396</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>36.26383390164366</v>
+        <v>49.21139758416701</v>
       </c>
       <c r="G22">
-        <v>26.95742272337975</v>
+        <v>2.030505254127323</v>
       </c>
       <c r="H22">
-        <v>26.84179521601486</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>20.21835728906376</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>9.969885676428518</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>23.90747999325581</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>42.94362679855089</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>33.90705169105249</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>24.31412304981001</v>
+        <v>26.96745966110537</v>
       </c>
       <c r="C23">
-        <v>20.12544213666716</v>
+        <v>18.15196354769795</v>
       </c>
       <c r="D23">
-        <v>2.369890003196955</v>
+        <v>6.817442448875997</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>35.49773767053133</v>
+        <v>48.3964445244555</v>
       </c>
       <c r="G23">
-        <v>26.37239542956997</v>
+        <v>2.035578461276468</v>
       </c>
       <c r="H23">
-        <v>26.34587694959682</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>19.92599923746686</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>9.826234681450286</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>23.42167930385544</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>41.84088457951123</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>33.38963352523766</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>22.52329517837843</v>
+        <v>24.76205175152122</v>
       </c>
       <c r="C24">
-        <v>18.62278251328071</v>
+        <v>16.67989112155008</v>
       </c>
       <c r="D24">
-        <v>2.547517332166068</v>
+        <v>6.378229215783106</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>32.76680528286075</v>
+        <v>45.33210532963506</v>
       </c>
       <c r="G24">
-        <v>24.16929316174651</v>
+        <v>2.05475021798586</v>
       </c>
       <c r="H24">
-        <v>24.51977515482394</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>18.86966107030483</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>9.287315530204564</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>21.5268522579695</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>37.73550342716857</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>31.4616948431626</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>20.44135817039578</v>
+        <v>22.23602099255914</v>
       </c>
       <c r="C25">
-        <v>16.88672579579374</v>
+        <v>14.99478419250201</v>
       </c>
       <c r="D25">
-        <v>2.728271519814583</v>
+        <v>5.886905616372475</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>29.906847928379</v>
+        <v>42.06554484151591</v>
       </c>
       <c r="G25">
-        <v>21.86760444623675</v>
+        <v>2.075538863667806</v>
       </c>
       <c r="H25">
-        <v>22.58335982390556</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>17.8247134100323</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>8.715728703410438</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>19.35574004973519</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>33.32490788403062</v>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>29.4427906183283</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_20/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_20/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.239780944067</v>
+        <v>21.46433838136231</v>
       </c>
       <c r="C2">
-        <v>13.66314778484962</v>
+        <v>12.0246120186297</v>
       </c>
       <c r="D2">
-        <v>5.510807331104654</v>
+        <v>3.95406357455253</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>39.69089266796313</v>
+        <v>19.18572357245852</v>
       </c>
       <c r="G2">
-        <v>2.091110560564717</v>
+        <v>2.062322180984935</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>13.11406807465224</v>
       </c>
       <c r="J2">
-        <v>8.30289804152037</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>17.63886095671541</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>8.10666620998963</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>11.53912313812178</v>
       </c>
       <c r="O2">
-        <v>28.00468351752496</v>
+        <v>14.84711189534864</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.79770198201393</v>
+        <v>20.02319109682923</v>
       </c>
       <c r="C3">
-        <v>12.70083392506601</v>
+        <v>11.52511560709355</v>
       </c>
       <c r="D3">
-        <v>5.247818909875311</v>
+        <v>3.836889678300094</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>38.10226077600883</v>
+        <v>18.47696695716649</v>
       </c>
       <c r="G3">
-        <v>2.10190121287738</v>
+        <v>2.067687014493626</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>13.14784668125427</v>
       </c>
       <c r="J3">
-        <v>8.028441780316111</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>16.39765851122678</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>7.811115149262291</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>11.67079000856025</v>
       </c>
       <c r="O3">
-        <v>27.05998846665225</v>
+        <v>14.51992837798858</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.86706046510557</v>
+        <v>19.08559490617047</v>
       </c>
       <c r="C4">
-        <v>12.07951443284037</v>
+        <v>11.20659240948797</v>
       </c>
       <c r="D4">
-        <v>5.082772485246704</v>
+        <v>3.762720764696489</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>37.13836292620387</v>
+        <v>18.0477624954417</v>
       </c>
       <c r="G4">
-        <v>2.108664709997383</v>
+        <v>2.071085322099837</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>13.18322140170976</v>
       </c>
       <c r="J4">
-        <v>7.862767784938073</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>15.59610075427439</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>7.628885973762293</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>11.75518126707592</v>
       </c>
       <c r="O4">
-        <v>26.49495686228882</v>
+        <v>14.3310783641264</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.47629274446101</v>
+        <v>18.69018305880303</v>
       </c>
       <c r="C5">
-        <v>11.81853566738577</v>
+        <v>11.07393189042248</v>
       </c>
       <c r="D5">
-        <v>5.014698102887237</v>
+        <v>3.731964542127299</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>36.74873666217687</v>
+        <v>17.87461296527053</v>
       </c>
       <c r="G5">
-        <v>2.111458388486157</v>
+        <v>2.072496998480477</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>13.20114073745525</v>
       </c>
       <c r="J5">
-        <v>7.796012028262064</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>15.25938034213235</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>7.554542680660184</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>11.79045306988104</v>
       </c>
       <c r="O5">
-        <v>26.26854417930781</v>
+        <v>14.25716926377835</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.41070574276831</v>
+        <v>18.62371771771366</v>
       </c>
       <c r="C6">
-        <v>11.77472649233106</v>
+        <v>11.0517347010154</v>
       </c>
       <c r="D6">
-        <v>5.003347761679487</v>
+        <v>3.726826225029282</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>36.68423984878527</v>
+        <v>17.84597519631518</v>
       </c>
       <c r="G6">
-        <v>2.111924619072886</v>
+        <v>2.072733044774983</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>13.20432272733138</v>
       </c>
       <c r="J6">
-        <v>7.784974419959411</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>15.20285497431277</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>7.542196310810947</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>11.79636290286735</v>
       </c>
       <c r="O6">
-        <v>26.23118279049996</v>
+        <v>14.24508122988949</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.86183729185177</v>
+        <v>19.08031633082987</v>
       </c>
       <c r="C7">
-        <v>12.07602647098309</v>
+        <v>11.2048147173261</v>
       </c>
       <c r="D7">
-        <v>5.081857597970095</v>
+        <v>3.762308090719921</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>37.13309506022612</v>
+        <v>18.04541989324471</v>
       </c>
       <c r="G7">
-        <v>2.108702231154445</v>
+        <v>2.07110425099642</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>13.18344911303319</v>
       </c>
       <c r="J7">
-        <v>7.861864364248492</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>15.59160063754524</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>7.627883543204253</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>11.75565339760949</v>
       </c>
       <c r="O7">
-        <v>26.49188772617795</v>
+        <v>14.33006923675228</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.75183294320822</v>
+        <v>20.97832810182658</v>
       </c>
       <c r="C8">
-        <v>13.33758328966614</v>
+        <v>11.85490476562458</v>
       </c>
       <c r="D8">
-        <v>5.420913826261035</v>
+        <v>3.91413918017605</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>39.14088481856399</v>
+        <v>18.94025137175294</v>
       </c>
       <c r="G8">
-        <v>2.094804296360887</v>
+        <v>2.064150713101506</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>13.12257138048157</v>
       </c>
       <c r="J8">
-        <v>8.207698809679984</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>17.2189849467485</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>8.004979555639309</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>11.58377899778289</v>
       </c>
       <c r="O8">
-        <v>27.67587069256671</v>
+        <v>14.73181549512665</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.1074936812275</v>
+        <v>24.28545680861487</v>
       </c>
       <c r="C9">
-        <v>15.57608477408404</v>
+        <v>13.03166528342282</v>
       </c>
       <c r="D9">
-        <v>6.054714541060909</v>
+        <v>4.193162125610464</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>43.16116775948004</v>
+        <v>20.73217903533051</v>
       </c>
       <c r="G9">
-        <v>2.068505490363645</v>
+        <v>2.051312781605924</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>13.12718083494417</v>
       </c>
       <c r="J9">
-        <v>8.90703256926035</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>20.1049077091036</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>8.734210905884627</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>11.27541791399168</v>
       </c>
       <c r="O9">
-        <v>30.11520489980149</v>
+        <v>15.61381008236782</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.37172203186702</v>
+        <v>26.46725851794603</v>
       </c>
       <c r="C10">
-        <v>17.08672266555361</v>
+        <v>13.83193049584002</v>
       </c>
       <c r="D10">
-        <v>6.498835195777453</v>
+        <v>4.385488856843383</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>46.16044913251356</v>
+        <v>22.05924164560415</v>
       </c>
       <c r="G10">
-        <v>2.049547004290499</v>
+        <v>2.042323664827756</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>13.21680501735925</v>
       </c>
       <c r="J10">
-        <v>9.432777659970057</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>22.05070877271597</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>9.258837819128662</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>11.06722363447419</v>
       </c>
       <c r="O10">
-        <v>31.97991561044596</v>
+        <v>16.31697793200422</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.36131205969025</v>
+        <v>27.40709090114029</v>
       </c>
       <c r="C11">
-        <v>17.74724708803523</v>
+        <v>14.18135242313209</v>
       </c>
       <c r="D11">
-        <v>6.695958436588653</v>
+        <v>4.470012822080842</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>47.53581091825455</v>
+        <v>22.66320094546478</v>
       </c>
       <c r="G11">
-        <v>2.040944554897798</v>
+        <v>2.038320174430534</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>13.2785185178041</v>
       </c>
       <c r="J11">
-        <v>9.674666893189935</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>22.90093133243264</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>9.494276030475806</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>10.97673295200798</v>
       </c>
       <c r="O11">
-        <v>32.8452492430629</v>
+        <v>16.64831688224742</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>26.73053756915284</v>
+        <v>27.75549861672241</v>
       </c>
       <c r="C12">
-        <v>17.99376088581201</v>
+        <v>14.31152560398787</v>
       </c>
       <c r="D12">
-        <v>6.769896310973602</v>
+        <v>4.501577886374886</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>48.05844196432966</v>
+        <v>22.89181087313939</v>
       </c>
       <c r="G12">
-        <v>2.037684703078691</v>
+        <v>2.036815575254162</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>13.30507418986578</v>
       </c>
       <c r="J12">
-        <v>9.766691030317329</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>23.21813925375023</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>9.582914919078659</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>10.94309670810439</v>
       </c>
       <c r="O12">
-        <v>33.17557821535328</v>
+        <v>16.77539155675395</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>26.65125812593786</v>
+        <v>27.68079429088449</v>
       </c>
       <c r="C13">
-        <v>17.94082654156519</v>
+        <v>14.28358645969055</v>
       </c>
       <c r="D13">
-        <v>6.754003861417317</v>
+        <v>4.494799686468218</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>47.94579826511748</v>
+        <v>22.84258175882608</v>
       </c>
       <c r="G13">
-        <v>2.038386967089566</v>
+        <v>2.037139123805043</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>13.29921053959955</v>
       </c>
       <c r="J13">
-        <v>9.7468522536074</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>23.15002958079348</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>9.563848658819131</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>10.95031240995555</v>
       </c>
       <c r="O13">
-        <v>33.10431432126855</v>
+        <v>16.7479530794667</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.39179704406106</v>
+        <v>27.43590413163626</v>
       </c>
       <c r="C14">
-        <v>17.767598948637</v>
+        <v>14.19210505071032</v>
       </c>
       <c r="D14">
-        <v>6.702055511271886</v>
+        <v>4.472618646683479</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>47.57876995971685</v>
+        <v>22.68201142251232</v>
       </c>
       <c r="G14">
-        <v>2.04067644467283</v>
+        <v>2.038196166268695</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>13.28063843840265</v>
       </c>
       <c r="J14">
-        <v>9.68222896115299</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>22.92712180895101</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>9.501579025163769</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>10.9739528899904</v>
       </c>
       <c r="O14">
-        <v>32.87237117899726</v>
+        <v>16.65873948777929</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.23216157782543</v>
+        <v>27.28492958001299</v>
       </c>
       <c r="C15">
-        <v>17.66102868918939</v>
+        <v>14.13578957991358</v>
       </c>
       <c r="D15">
-        <v>6.670143559433503</v>
+        <v>4.458974083195204</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>47.35419968346049</v>
+        <v>22.58364139652408</v>
       </c>
       <c r="G15">
-        <v>2.042078343301864</v>
+        <v>2.03884509716213</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>13.26968248329867</v>
       </c>
       <c r="J15">
-        <v>9.642702198255733</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>22.78997397275093</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>9.463368408172441</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>10.98851626134392</v>
       </c>
       <c r="O15">
-        <v>32.73065100714528</v>
+        <v>16.60430120641806</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.30626157836284</v>
+        <v>26.40478573251071</v>
       </c>
       <c r="C16">
-        <v>17.04303756978094</v>
+        <v>13.80879681806473</v>
       </c>
       <c r="D16">
-        <v>6.485853405703783</v>
+        <v>4.37990392987979</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>46.07080370749821</v>
+        <v>22.01976469909085</v>
       </c>
       <c r="G16">
-        <v>2.050109186657093</v>
+        <v>2.042586952357397</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>13.21320838761823</v>
       </c>
       <c r="J16">
-        <v>9.417026868359866</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>21.9944641852504</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>9.243381789242932</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>11.0732242744747</v>
       </c>
       <c r="O16">
-        <v>31.92372196830065</v>
+        <v>16.29555091359745</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>24.72810254444151</v>
+        <v>25.85141563482617</v>
       </c>
       <c r="C17">
-        <v>16.65723889717003</v>
+        <v>13.60441836646456</v>
       </c>
       <c r="D17">
-        <v>6.371533718456524</v>
+        <v>4.330625296868141</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>45.28641656031363</v>
+        <v>21.67380847498831</v>
       </c>
       <c r="G17">
-        <v>2.055037808381892</v>
+        <v>2.044903796905395</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>13.18405353765756</v>
       </c>
       <c r="J17">
-        <v>9.279297614477377</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>21.49768022244535</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>9.107561347070666</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>11.12628634501479</v>
       </c>
       <c r="O17">
-        <v>31.43317934070276</v>
+        <v>16.1090457043773</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.39173622820283</v>
+        <v>25.52816778345925</v>
       </c>
       <c r="C18">
-        <v>16.43281234938604</v>
+        <v>13.48549075111437</v>
       </c>
       <c r="D18">
-        <v>6.305317213052759</v>
+        <v>4.302003120747769</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>44.83626893199991</v>
+        <v>21.47485544367256</v>
       </c>
       <c r="G18">
-        <v>2.057875044586731</v>
+        <v>2.046244508116959</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>13.16924561805092</v>
       </c>
       <c r="J18">
-        <v>9.200332576779525</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>21.20863732990051</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>9.029140719211066</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>11.15720163012376</v>
       </c>
       <c r="O18">
-        <v>31.15262256977831</v>
+        <v>16.00285441792377</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.27718292547655</v>
+        <v>25.41786638351253</v>
       </c>
       <c r="C19">
-        <v>16.35638528538226</v>
+        <v>13.44498930097251</v>
       </c>
       <c r="D19">
-        <v>6.282818253230031</v>
+        <v>4.292264841164231</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>44.6840254046138</v>
+        <v>21.40750344684473</v>
       </c>
       <c r="G19">
-        <v>2.058836254012062</v>
+        <v>2.04669987120718</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>13.1645633233914</v>
       </c>
       <c r="J19">
-        <v>9.173639180432437</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>21.11019685817077</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>9.002539084295869</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>11.16773624049622</v>
       </c>
       <c r="O19">
-        <v>31.05789950373554</v>
+        <v>15.96708707117657</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>24.79004232108919</v>
+        <v>25.91083594797557</v>
       </c>
       <c r="C20">
-        <v>16.69856766024542</v>
+        <v>13.62631740323323</v>
       </c>
       <c r="D20">
-        <v>6.383751209556683</v>
+        <v>4.335900026614675</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>45.36981000273983</v>
+        <v>21.71063388616575</v>
       </c>
       <c r="G20">
-        <v>2.054512934403697</v>
+        <v>2.044656330339229</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>13.18695286184603</v>
       </c>
       <c r="J20">
-        <v>9.293932749458643</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>21.55090401464492</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>9.122051169713206</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>11.12059671190849</v>
       </c>
       <c r="O20">
-        <v>31.4852327175359</v>
+        <v>16.12878790247866</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.46815401922982</v>
+        <v>27.50803676198402</v>
       </c>
       <c r="C21">
-        <v>17.81857621668429</v>
+        <v>14.21903386824745</v>
       </c>
       <c r="D21">
-        <v>6.71733317627456</v>
+        <v>4.479145875651811</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>47.68652336672228</v>
+        <v>22.72917836893917</v>
       </c>
       <c r="G21">
-        <v>2.040004078865899</v>
+        <v>2.037885384296582</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>13.28600568655446</v>
       </c>
       <c r="J21">
-        <v>9.701198443485962</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>22.99272189984097</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>9.519883517216526</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>10.96699178516501</v>
       </c>
       <c r="O21">
-        <v>32.9404247449447</v>
+        <v>16.68490048682285</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.5329451292286</v>
+        <v>28.5083069221943</v>
       </c>
       <c r="C22">
-        <v>18.52963504966898</v>
+        <v>14.59389132125</v>
       </c>
       <c r="D22">
-        <v>6.931228075870396</v>
+        <v>4.570181231335859</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>49.21139758416701</v>
+        <v>23.39425286913433</v>
       </c>
       <c r="G22">
-        <v>2.030505254127323</v>
+        <v>2.033526378435384</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>13.3693895762241</v>
       </c>
       <c r="J22">
-        <v>9.969885676428518</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>23.90747999325581</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>9.776862368626494</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>10.8702913612103</v>
       </c>
       <c r="O22">
-        <v>33.90705169105249</v>
+        <v>17.05768385230265</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>26.96745966110537</v>
+        <v>27.97840243264023</v>
       </c>
       <c r="C23">
-        <v>18.15196354769795</v>
+        <v>14.39497952118606</v>
       </c>
       <c r="D23">
-        <v>6.817442448875997</v>
+        <v>4.521835067237713</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>48.3964445244555</v>
+        <v>23.03938228104309</v>
       </c>
       <c r="G23">
-        <v>2.035578461276468</v>
+        <v>2.035847114546319</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>13.32312391006968</v>
       </c>
       <c r="J23">
-        <v>9.826234681450286</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>23.42167930385544</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>9.639999914174551</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>10.92155580637793</v>
       </c>
       <c r="O23">
-        <v>33.38963352523766</v>
+        <v>16.8578818448884</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>24.76205175152122</v>
+        <v>25.88398794140542</v>
       </c>
       <c r="C24">
-        <v>16.67989112155008</v>
+        <v>13.61642129239374</v>
       </c>
       <c r="D24">
-        <v>6.378229215783106</v>
+        <v>4.333516227205406</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>45.33210532963506</v>
+        <v>21.6939852883813</v>
       </c>
       <c r="G24">
-        <v>2.05475021798586</v>
+        <v>2.044768182726536</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>13.18563600568784</v>
       </c>
       <c r="J24">
-        <v>9.287315530204564</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>21.5268522579695</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>9.115501362149494</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>11.12316772226852</v>
       </c>
       <c r="O24">
-        <v>31.4616948431626</v>
+        <v>16.11985923353817</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.23602099255914</v>
+        <v>23.43470011724025</v>
       </c>
       <c r="C25">
-        <v>14.99478419250201</v>
+        <v>12.7243402923845</v>
       </c>
       <c r="D25">
-        <v>5.886905616372475</v>
+        <v>4.119822301542369</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>42.06554484151591</v>
+        <v>20.24477926712311</v>
       </c>
       <c r="G25">
-        <v>2.075538863667806</v>
+        <v>2.054704698664751</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>13.11155185442342</v>
       </c>
       <c r="J25">
-        <v>8.715728703410438</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>19.35574004973519</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>8.538578657949428</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>11.35568509596604</v>
       </c>
       <c r="O25">
-        <v>29.4427906183283</v>
+        <v>15.3653392051133</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_20/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_20/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.46433838136231</v>
+        <v>15.20528676305393</v>
       </c>
       <c r="C2">
-        <v>12.0246120186297</v>
+        <v>10.30178542906352</v>
       </c>
       <c r="D2">
-        <v>3.95406357455253</v>
+        <v>4.433521130763651</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>19.18572357245852</v>
+        <v>23.26322633026942</v>
       </c>
       <c r="G2">
-        <v>2.062322180984935</v>
+        <v>3.617448312761777</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>13.11406807465224</v>
+        <v>20.97475683152234</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>8.10666620998963</v>
+        <v>10.65195905747185</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>11.53912313812178</v>
+        <v>16.89179742351937</v>
       </c>
       <c r="O2">
-        <v>14.84711189534864</v>
+        <v>20.68331587780488</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.02319109682923</v>
+        <v>14.65848222874885</v>
       </c>
       <c r="C3">
-        <v>11.52511560709355</v>
+        <v>10.10787278854541</v>
       </c>
       <c r="D3">
-        <v>3.836889678300094</v>
+        <v>4.395257537804144</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>18.47696695716649</v>
+        <v>23.21544168812196</v>
       </c>
       <c r="G3">
-        <v>2.067687014493626</v>
+        <v>3.619525761940682</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>13.14784668125427</v>
+        <v>21.06394726325459</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>7.811115149262291</v>
+        <v>10.62380305732493</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>11.67079000856025</v>
+        <v>16.93888867350491</v>
       </c>
       <c r="O3">
-        <v>14.51992837798858</v>
+        <v>20.70854798102424</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.08559490617047</v>
+        <v>14.31396454376042</v>
       </c>
       <c r="C4">
-        <v>11.20659240948797</v>
+        <v>9.985920972977109</v>
       </c>
       <c r="D4">
-        <v>3.762720764696489</v>
+        <v>4.371285496611651</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>18.0477624954417</v>
+        <v>23.19350196777786</v>
       </c>
       <c r="G4">
-        <v>2.071085322099837</v>
+        <v>3.620869760474023</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>13.18322140170976</v>
+        <v>21.12371969973346</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>7.628885973762293</v>
+        <v>10.60867511328675</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>11.75518126707592</v>
+        <v>16.9695925348456</v>
       </c>
       <c r="O4">
-        <v>14.3310783641264</v>
+        <v>20.72976496713104</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.69018305880303</v>
+        <v>14.17157772463309</v>
       </c>
       <c r="C5">
-        <v>11.07393189042248</v>
+        <v>9.935539730537435</v>
       </c>
       <c r="D5">
-        <v>3.731964542127299</v>
+        <v>4.361400684938728</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>17.87461296527053</v>
+        <v>23.18642824169083</v>
       </c>
       <c r="G5">
-        <v>2.072496998480477</v>
+        <v>3.621434714200854</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>13.20114073745525</v>
+        <v>21.14933359963494</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>7.554542680660184</v>
+        <v>10.60305800535437</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>11.79045306988104</v>
+        <v>16.98255544661242</v>
       </c>
       <c r="O5">
-        <v>14.25716926377835</v>
+        <v>20.73984705217921</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.62371771771366</v>
+        <v>14.14782079340942</v>
       </c>
       <c r="C6">
-        <v>11.0517347010154</v>
+        <v>9.927133845708983</v>
       </c>
       <c r="D6">
-        <v>3.726826225029282</v>
+        <v>4.359752436210472</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>17.84597519631518</v>
+        <v>23.18536654379675</v>
       </c>
       <c r="G6">
-        <v>2.072733044774983</v>
+        <v>3.62152956860939</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>13.20432272733138</v>
+        <v>21.15366253514701</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>7.542196310810947</v>
+        <v>10.60215848718624</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>11.79636290286735</v>
+        <v>16.98473518217748</v>
       </c>
       <c r="O6">
-        <v>14.24508122988949</v>
+        <v>20.74160779068901</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.08031633082987</v>
+        <v>14.31205203688453</v>
       </c>
       <c r="C7">
-        <v>11.2048147173261</v>
+        <v>9.985244230868958</v>
       </c>
       <c r="D7">
-        <v>3.762308090719921</v>
+        <v>4.371152650740159</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>18.04541989324471</v>
+        <v>23.19339900375135</v>
       </c>
       <c r="G7">
-        <v>2.07110425099642</v>
+        <v>3.620877309665768</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>13.18344911303319</v>
+        <v>21.12406005624813</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>7.627883543204253</v>
+        <v>10.60859713601166</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>11.75565339760949</v>
+        <v>16.96976553068649</v>
       </c>
       <c r="O7">
-        <v>14.33006923675228</v>
+        <v>20.7298951284794</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.97832810182658</v>
+        <v>15.01869233131083</v>
       </c>
       <c r="C8">
-        <v>11.85490476562458</v>
+        <v>10.2355482165308</v>
       </c>
       <c r="D8">
-        <v>3.91413918017605</v>
+        <v>4.420429561899932</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>18.94025137175294</v>
+        <v>23.24521854499897</v>
       </c>
       <c r="G8">
-        <v>2.064150713101506</v>
+        <v>3.618150446150101</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>13.12257138048157</v>
+        <v>21.004467982361</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>8.004979555639309</v>
+        <v>10.64180543509614</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>11.58377899778289</v>
+        <v>16.90766353550681</v>
       </c>
       <c r="O8">
-        <v>14.73181549512665</v>
+        <v>20.69082594342618</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.28545680861487</v>
+        <v>16.3264091609242</v>
       </c>
       <c r="C9">
-        <v>13.03166528342282</v>
+        <v>10.70174766796471</v>
       </c>
       <c r="D9">
-        <v>4.193162125610464</v>
+        <v>4.513087879004767</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>20.73217903533051</v>
+        <v>23.4051883277727</v>
       </c>
       <c r="G9">
-        <v>2.051312781605924</v>
+        <v>3.613343599648699</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>13.12718083494417</v>
+        <v>20.80984642454262</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>8.734210905884627</v>
+        <v>10.72384385163468</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>11.27541791399168</v>
+        <v>16.8000451340643</v>
       </c>
       <c r="O9">
-        <v>15.61381008236782</v>
+        <v>20.65975635892505</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.46725851794603</v>
+        <v>17.22985074187595</v>
       </c>
       <c r="C10">
-        <v>13.83193049584002</v>
+        <v>11.02707214853944</v>
       </c>
       <c r="D10">
-        <v>4.385488856843383</v>
+        <v>4.578505722302741</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>22.05924164560415</v>
+        <v>23.55765625118628</v>
       </c>
       <c r="G10">
-        <v>2.042323664827756</v>
+        <v>3.610138048994385</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>13.21680501735925</v>
+        <v>20.69138800291504</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>9.258837819128662</v>
+        <v>10.79410169628534</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>11.06722363447419</v>
+        <v>16.72956216320888</v>
       </c>
       <c r="O10">
-        <v>16.31697793200422</v>
+        <v>20.66482126284693</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.40709090114029</v>
+        <v>17.62670628818144</v>
       </c>
       <c r="C11">
-        <v>14.18135242313209</v>
+        <v>11.17092036406003</v>
       </c>
       <c r="D11">
-        <v>4.470012822080842</v>
+        <v>4.607640153047183</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>22.66320094546478</v>
+        <v>23.63442395687386</v>
       </c>
       <c r="G11">
-        <v>2.038320174430534</v>
+        <v>3.608749817637116</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>13.2785185178041</v>
+        <v>20.64286837888357</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>9.494276030475806</v>
+        <v>10.82815138209877</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>10.97673295200798</v>
+        <v>16.69935133808284</v>
       </c>
       <c r="O11">
-        <v>16.64831688224742</v>
+        <v>20.67319285881358</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.75549861672241</v>
+        <v>17.77483568159357</v>
       </c>
       <c r="C12">
-        <v>14.31152560398787</v>
+        <v>11.22476403366744</v>
       </c>
       <c r="D12">
-        <v>4.501577886374886</v>
+        <v>4.618578779303618</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>22.89181087313939</v>
+        <v>23.66454087892712</v>
       </c>
       <c r="G12">
-        <v>2.036815575254162</v>
+        <v>3.608234138862704</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>13.30507418986578</v>
+        <v>20.62527071285842</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>9.582914919078659</v>
+        <v>10.84133796441634</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>10.94309670810439</v>
+        <v>16.68817689810015</v>
       </c>
       <c r="O12">
-        <v>16.77539155675395</v>
+        <v>20.67723496282575</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.68079429088449</v>
+        <v>17.74303079115117</v>
       </c>
       <c r="C13">
-        <v>14.28358645969055</v>
+        <v>11.21319628744397</v>
       </c>
       <c r="D13">
-        <v>4.494799686468218</v>
+        <v>4.616227193974598</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>22.84258175882608</v>
+        <v>23.65800843068612</v>
       </c>
       <c r="G13">
-        <v>2.037139123805043</v>
+        <v>3.608344754917984</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>13.29921053959955</v>
+        <v>20.62902612751634</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>9.563848658819131</v>
+        <v>10.83848510703977</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>10.95031240995555</v>
+        <v>16.690571704048</v>
       </c>
       <c r="O13">
-        <v>16.7479530794667</v>
+        <v>20.67632566024677</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.43590413163626</v>
+        <v>17.63893672908714</v>
       </c>
       <c r="C14">
-        <v>14.19210505071032</v>
+        <v>11.17536289134043</v>
       </c>
       <c r="D14">
-        <v>4.472618646683479</v>
+        <v>4.608541986758891</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>22.68201142251232</v>
+        <v>23.63688083224741</v>
       </c>
       <c r="G14">
-        <v>2.038196166268695</v>
+        <v>3.608707192017851</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>13.28063843840265</v>
+        <v>20.64140504135605</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>9.501579025163769</v>
+        <v>10.8292304295568</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>10.9739528899904</v>
+        <v>16.69842668766271</v>
       </c>
       <c r="O14">
-        <v>16.65873948777929</v>
+        <v>20.67350793582356</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.28492958001299</v>
+        <v>17.57489265983812</v>
       </c>
       <c r="C15">
-        <v>14.13578957991358</v>
+        <v>11.15210605772602</v>
       </c>
       <c r="D15">
-        <v>4.458974083195204</v>
+        <v>4.603822218730145</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>22.58364139652408</v>
+        <v>23.6240752824391</v>
       </c>
       <c r="G15">
-        <v>2.03884509716213</v>
+        <v>3.608930497885084</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>13.26968248329867</v>
+        <v>20.64908860926821</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>9.463368408172441</v>
+        <v>10.82359955530862</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>10.98851626134392</v>
+        <v>16.70327268205981</v>
       </c>
       <c r="O15">
-        <v>16.60430120641806</v>
+        <v>20.67189552300573</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.40478573251071</v>
+        <v>17.20362045596151</v>
       </c>
       <c r="C16">
-        <v>13.80879681806473</v>
+        <v>11.01758510666169</v>
       </c>
       <c r="D16">
-        <v>4.37990392987979</v>
+        <v>4.576588795666877</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>22.01976469909085</v>
+        <v>23.5527868344234</v>
       </c>
       <c r="G16">
-        <v>2.042586952357397</v>
+        <v>3.610230177256275</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>13.21320838761823</v>
+        <v>20.69466721194658</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>9.243381789242932</v>
+        <v>10.79191785834601</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>11.0732242744747</v>
+        <v>16.73157373109869</v>
       </c>
       <c r="O16">
-        <v>16.29555091359745</v>
+        <v>20.66439622661946</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.85141563482617</v>
+        <v>16.97214892455167</v>
       </c>
       <c r="C17">
-        <v>13.60441836646456</v>
+        <v>10.93397565252696</v>
       </c>
       <c r="D17">
-        <v>4.330625296868141</v>
+        <v>4.559719046345382</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>21.67380847498831</v>
+        <v>23.51093864687859</v>
       </c>
       <c r="G17">
-        <v>2.044903796905395</v>
+        <v>3.611045378707546</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>13.18405353765756</v>
+        <v>20.72400572315453</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>9.107561347070666</v>
+        <v>10.77301188334006</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>11.12628634501479</v>
+        <v>16.74940947149239</v>
       </c>
       <c r="O17">
-        <v>16.1090457043773</v>
+        <v>20.66134957491216</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.52816778345925</v>
+        <v>16.83768929408067</v>
       </c>
       <c r="C18">
-        <v>13.48549075111437</v>
+        <v>10.8854975145716</v>
       </c>
       <c r="D18">
-        <v>4.302003120747769</v>
+        <v>4.549957476831582</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>21.47485544367256</v>
+        <v>23.48756732773759</v>
       </c>
       <c r="G18">
-        <v>2.046244508116959</v>
+        <v>3.611520851755873</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>13.16924561805092</v>
+        <v>20.74138546919397</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>9.029140719211066</v>
+        <v>10.76233478665404</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>11.15720163012376</v>
+        <v>16.75984249315107</v>
       </c>
       <c r="O18">
-        <v>16.00285441792377</v>
+        <v>20.66016841303761</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.41786638351253</v>
+        <v>16.7919402055002</v>
       </c>
       <c r="C19">
-        <v>13.44498930097251</v>
+        <v>10.86901800960049</v>
       </c>
       <c r="D19">
-        <v>4.292264841164231</v>
+        <v>4.546642451567086</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>21.40750344684473</v>
+        <v>23.47977473433139</v>
       </c>
       <c r="G19">
-        <v>2.04669987120718</v>
+        <v>3.611682972259236</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>13.1645633233914</v>
+        <v>20.74735657213689</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>9.002539084295869</v>
+        <v>10.75875378791044</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>11.16773624049622</v>
+        <v>16.76340490299743</v>
       </c>
       <c r="O19">
-        <v>15.96708707117657</v>
+        <v>20.65986659747325</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.91083594797557</v>
+        <v>16.99692734261043</v>
       </c>
       <c r="C20">
-        <v>13.62631740323323</v>
+        <v>10.94291644172074</v>
       </c>
       <c r="D20">
-        <v>4.335900026614675</v>
+        <v>4.561520948571099</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>21.71063388616575</v>
+        <v>23.51532127980909</v>
       </c>
       <c r="G20">
-        <v>2.044656330339229</v>
+        <v>3.610957917369672</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>13.18695286184603</v>
+        <v>20.72083029419735</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>9.122051169713206</v>
+        <v>10.77500410980616</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>11.12059671190849</v>
+        <v>16.74749278371101</v>
       </c>
       <c r="O20">
-        <v>16.12878790247866</v>
+        <v>20.66161478124641</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.50803676198402</v>
+        <v>17.66957094230913</v>
       </c>
       <c r="C21">
-        <v>14.21903386824745</v>
+        <v>11.18649278471553</v>
       </c>
       <c r="D21">
-        <v>4.479145875651811</v>
+        <v>4.610801900808721</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>22.72917836893917</v>
+        <v>23.64305827359942</v>
       </c>
       <c r="G21">
-        <v>2.037885384296582</v>
+        <v>3.608600464068305</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>13.28600568655446</v>
+        <v>20.63774797308947</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>9.519883517216526</v>
+        <v>10.8319408722466</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>10.96699178516501</v>
+        <v>16.69611228106403</v>
       </c>
       <c r="O21">
-        <v>16.68490048682285</v>
+        <v>20.67431191348195</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.5083069221943</v>
+        <v>18.09659844381068</v>
       </c>
       <c r="C22">
-        <v>14.59389132125</v>
+        <v>11.3420068279014</v>
       </c>
       <c r="D22">
-        <v>4.570181231335859</v>
+        <v>4.64246038034022</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>23.39425286913433</v>
+        <v>23.73263241660718</v>
       </c>
       <c r="G22">
-        <v>2.033526378435384</v>
+        <v>3.607118080152247</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>13.3693895762241</v>
+        <v>20.58797174616848</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>9.776862368626494</v>
+        <v>10.87085457440242</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>10.8702913612103</v>
+        <v>16.66408084614622</v>
       </c>
       <c r="O22">
-        <v>17.05768385230265</v>
+        <v>20.68769183969404</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.97840243264023</v>
+        <v>17.86987304942739</v>
       </c>
       <c r="C23">
-        <v>14.39497952118606</v>
+        <v>11.25935275898681</v>
       </c>
       <c r="D23">
-        <v>4.521835067237713</v>
+        <v>4.625615277265003</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>23.03938228104309</v>
+        <v>23.68427443088498</v>
       </c>
       <c r="G23">
-        <v>2.035847114546319</v>
+        <v>3.607903933950115</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>13.32312391006968</v>
+        <v>20.61412317423703</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>9.639999914174551</v>
+        <v>10.84993249911189</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>10.92155580637793</v>
+        <v>16.68103511420959</v>
       </c>
       <c r="O23">
-        <v>16.8578818448884</v>
+        <v>20.68008615024548</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.88398794140542</v>
+        <v>16.98572932000375</v>
       </c>
       <c r="C24">
-        <v>13.61642129239374</v>
+        <v>10.93887558535538</v>
       </c>
       <c r="D24">
-        <v>4.333516227205406</v>
+        <v>4.560706504252862</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>21.6939852883813</v>
+        <v>23.51333774771131</v>
       </c>
       <c r="G24">
-        <v>2.044768182726536</v>
+        <v>3.610997437446597</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>13.18563600568784</v>
+        <v>20.72226430903105</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>9.115501362149494</v>
+        <v>10.77410282496451</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>11.12316772226852</v>
+        <v>16.7483587605701</v>
       </c>
       <c r="O24">
-        <v>16.11985923353817</v>
+        <v>20.66149310465155</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.43470011724025</v>
+        <v>15.98207282687133</v>
       </c>
       <c r="C25">
-        <v>12.7243402923845</v>
+        <v>10.57849868768467</v>
       </c>
       <c r="D25">
-        <v>4.119822301542369</v>
+        <v>4.488471344762172</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>20.24477926712311</v>
+        <v>23.35572217997017</v>
       </c>
       <c r="G25">
-        <v>2.054704698664751</v>
+        <v>3.61458647319513</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>13.11155185442342</v>
+        <v>20.85820381731295</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>8.538578657949428</v>
+        <v>10.69987112498742</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>11.35568509596604</v>
+        <v>16.8276477385981</v>
       </c>
       <c r="O25">
-        <v>15.3653392051133</v>
+        <v>20.66326950348931</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_20/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_20/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.20528676305393</v>
+        <v>21.46433838136233</v>
       </c>
       <c r="C2">
-        <v>10.30178542906352</v>
+        <v>12.0246120186295</v>
       </c>
       <c r="D2">
-        <v>4.433521130763651</v>
+        <v>3.954063574552654</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>23.26322633026942</v>
+        <v>19.18572357245857</v>
       </c>
       <c r="G2">
-        <v>3.617448312761777</v>
+        <v>2.062322180984935</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>20.97475683152234</v>
+        <v>13.11406807465228</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>10.65195905747185</v>
+        <v>8.10666620998963</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>16.89179742351937</v>
+        <v>11.53912313812181</v>
       </c>
       <c r="O2">
-        <v>20.68331587780488</v>
+        <v>14.8471118953487</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.65848222874885</v>
+        <v>20.02319109682921</v>
       </c>
       <c r="C3">
-        <v>10.10787278854541</v>
+        <v>11.52511560709364</v>
       </c>
       <c r="D3">
-        <v>4.395257537804144</v>
+        <v>3.836889678300152</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>23.21544168812196</v>
+        <v>18.47696695716643</v>
       </c>
       <c r="G3">
-        <v>3.619525761940682</v>
+        <v>2.06768701449376</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>21.06394726325459</v>
+        <v>13.14784668125425</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>10.62380305732493</v>
+        <v>7.811115149262267</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>16.93888867350491</v>
+        <v>11.67079000856025</v>
       </c>
       <c r="O3">
-        <v>20.70854798102424</v>
+        <v>14.51992837798853</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14.31396454376042</v>
+        <v>19.08559490617048</v>
       </c>
       <c r="C4">
-        <v>9.985920972977109</v>
+        <v>11.20659240948783</v>
       </c>
       <c r="D4">
-        <v>4.371285496611651</v>
+        <v>3.762720764696665</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>23.19350196777786</v>
+        <v>18.0477624954417</v>
       </c>
       <c r="G4">
-        <v>3.620869760474023</v>
+        <v>2.071085322099837</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>21.12371969973346</v>
+        <v>13.18322140170979</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>10.60867511328675</v>
+        <v>7.628885973762328</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>16.9695925348456</v>
+        <v>11.75518126707595</v>
       </c>
       <c r="O4">
-        <v>20.72976496713104</v>
+        <v>14.33107836412647</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.17157772463309</v>
+        <v>18.69018305880297</v>
       </c>
       <c r="C5">
-        <v>9.935539730537435</v>
+        <v>11.07393189042289</v>
       </c>
       <c r="D5">
-        <v>4.361400684938728</v>
+        <v>3.731964542127235</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>23.18642824169083</v>
+        <v>17.87461296527062</v>
       </c>
       <c r="G5">
-        <v>3.621434714200854</v>
+        <v>2.072496998480478</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>21.14933359963494</v>
+        <v>13.20114073745543</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>10.60305800535437</v>
+        <v>7.554542680660134</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>16.98255544661242</v>
+        <v>11.79045306988113</v>
       </c>
       <c r="O5">
-        <v>20.73984705217921</v>
+        <v>14.25716926377842</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.14782079340942</v>
+        <v>18.62371771771369</v>
       </c>
       <c r="C6">
-        <v>9.927133845708983</v>
+        <v>11.05173470101549</v>
       </c>
       <c r="D6">
-        <v>4.359752436210472</v>
+        <v>3.726826225029504</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>23.18536654379675</v>
+        <v>17.84597519631506</v>
       </c>
       <c r="G6">
-        <v>3.62152956860939</v>
+        <v>2.072733044774851</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>21.15366253514701</v>
+        <v>13.20432272733134</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>10.60215848718624</v>
+        <v>7.542196310811014</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>16.98473518217748</v>
+        <v>11.79636290286736</v>
       </c>
       <c r="O6">
-        <v>20.74160779068901</v>
+        <v>14.24508122988944</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14.31205203688453</v>
+        <v>19.0803163308299</v>
       </c>
       <c r="C7">
-        <v>9.985244230868958</v>
+        <v>11.204814717326</v>
       </c>
       <c r="D7">
-        <v>4.371152650740159</v>
+        <v>3.762308090720034</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>23.19339900375135</v>
+        <v>18.04541989324462</v>
       </c>
       <c r="G7">
-        <v>3.620877309665768</v>
+        <v>2.07110425099642</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>21.12406005624813</v>
+        <v>13.1834491130331</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>10.60859713601166</v>
+        <v>7.627883543204267</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>16.96976553068649</v>
+        <v>11.75565339760946</v>
       </c>
       <c r="O7">
-        <v>20.7298951284794</v>
+        <v>14.33006923675222</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>15.01869233131083</v>
+        <v>20.97832810182655</v>
       </c>
       <c r="C8">
-        <v>10.2355482165308</v>
+        <v>11.85490476562438</v>
       </c>
       <c r="D8">
-        <v>4.420429561899932</v>
+        <v>3.914139180176066</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>23.24521854499897</v>
+        <v>18.94025137175306</v>
       </c>
       <c r="G8">
-        <v>3.618150446150101</v>
+        <v>2.064150713101506</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>21.004467982361</v>
+        <v>13.1225713804817</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>10.64180543509614</v>
+        <v>8.004979555639332</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>16.90766353550681</v>
+        <v>11.58377899778296</v>
       </c>
       <c r="O8">
-        <v>20.69082594342618</v>
+        <v>14.73181549512676</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.3264091609242</v>
+        <v>24.28545680861489</v>
       </c>
       <c r="C9">
-        <v>10.70174766796471</v>
+        <v>13.03166528342272</v>
       </c>
       <c r="D9">
-        <v>4.513087879004767</v>
+        <v>4.193162125610509</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>23.4051883277727</v>
+        <v>20.73217903533051</v>
       </c>
       <c r="G9">
-        <v>3.613343599648699</v>
+        <v>2.051312781605926</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>20.80984642454262</v>
+        <v>13.12718083494418</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>10.72384385163468</v>
+        <v>8.734210905884625</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>16.8000451340643</v>
+        <v>11.27541791399164</v>
       </c>
       <c r="O9">
-        <v>20.65975635892505</v>
+        <v>15.61381008236784</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.22985074187595</v>
+        <v>26.46725851794606</v>
       </c>
       <c r="C10">
-        <v>11.02707214853944</v>
+        <v>13.83193049584015</v>
       </c>
       <c r="D10">
-        <v>4.578505722302741</v>
+        <v>4.385488856843313</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>23.55765625118628</v>
+        <v>22.05924164560419</v>
       </c>
       <c r="G10">
-        <v>3.610138048994385</v>
+        <v>2.042323664827488</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>20.69138800291504</v>
+        <v>13.21680501735927</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>10.79410169628534</v>
+        <v>9.258837819128669</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>16.72956216320888</v>
+        <v>11.06722363447418</v>
       </c>
       <c r="O10">
-        <v>20.66482126284693</v>
+        <v>16.31697793200426</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.62670628818144</v>
+        <v>27.40709090114033</v>
       </c>
       <c r="C11">
-        <v>11.17092036406003</v>
+        <v>14.1813524231321</v>
       </c>
       <c r="D11">
-        <v>4.607640153047183</v>
+        <v>4.470012822080802</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>23.63442395687386</v>
+        <v>22.66320094546483</v>
       </c>
       <c r="G11">
-        <v>3.608749817637116</v>
+        <v>2.038320174430667</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>20.64286837888357</v>
+        <v>13.27851851780414</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>10.82815138209877</v>
+        <v>9.494276030475826</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>16.69935133808284</v>
+        <v>10.97673295200797</v>
       </c>
       <c r="O11">
-        <v>20.67319285881358</v>
+        <v>16.64831688224744</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.77483568159357</v>
+        <v>27.75549861672244</v>
       </c>
       <c r="C12">
-        <v>11.22476403366744</v>
+        <v>14.31152560398779</v>
       </c>
       <c r="D12">
-        <v>4.618578779303618</v>
+        <v>4.50157788637499</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>23.66454087892712</v>
+        <v>22.89181087313938</v>
       </c>
       <c r="G12">
-        <v>3.608234138862704</v>
+        <v>2.036815575254029</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>20.62527071285842</v>
+        <v>13.30507418986571</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>10.84133796441634</v>
+        <v>9.582914919078668</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>16.68817689810015</v>
+        <v>10.94309670810435</v>
       </c>
       <c r="O12">
-        <v>20.67723496282575</v>
+        <v>16.77539155675392</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.74303079115117</v>
+        <v>27.68079429088455</v>
       </c>
       <c r="C13">
-        <v>11.21319628744397</v>
+        <v>14.28358645969035</v>
       </c>
       <c r="D13">
-        <v>4.616227193974598</v>
+        <v>4.494799686468236</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>23.65800843068612</v>
+        <v>22.84258175882615</v>
       </c>
       <c r="G13">
-        <v>3.608344754917984</v>
+        <v>2.037139123804911</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>20.62902612751634</v>
+        <v>13.29921053959955</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>10.83848510703977</v>
+        <v>9.563848658819138</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>16.690571704048</v>
+        <v>10.95031240995553</v>
       </c>
       <c r="O13">
-        <v>20.67632566024677</v>
+        <v>16.74795307946675</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.63893672908714</v>
+        <v>27.43590413163627</v>
       </c>
       <c r="C14">
-        <v>11.17536289134043</v>
+        <v>14.19210505071021</v>
       </c>
       <c r="D14">
-        <v>4.608541986758891</v>
+        <v>4.472618646683569</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>23.63688083224741</v>
+        <v>22.6820114225123</v>
       </c>
       <c r="G14">
-        <v>3.608707192017851</v>
+        <v>2.038196166268964</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>20.64140504135605</v>
+        <v>13.2806384384026</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>10.8292304295568</v>
+        <v>9.501579025163768</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>16.69842668766271</v>
+        <v>10.97395288999036</v>
       </c>
       <c r="O14">
-        <v>20.67350793582356</v>
+        <v>16.65873948777927</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.57489265983812</v>
+        <v>27.28492958001299</v>
       </c>
       <c r="C15">
-        <v>11.15210605772602</v>
+        <v>14.13578957991365</v>
       </c>
       <c r="D15">
-        <v>4.603822218730145</v>
+        <v>4.458974083195209</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>23.6240752824391</v>
+        <v>22.58364139652408</v>
       </c>
       <c r="G15">
-        <v>3.608930497885084</v>
+        <v>2.038845097162262</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>20.64908860926821</v>
+        <v>13.26968248329867</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>10.82359955530862</v>
+        <v>9.463368408172441</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>16.70327268205981</v>
+        <v>10.98851626134391</v>
       </c>
       <c r="O15">
-        <v>20.67189552300573</v>
+        <v>16.60430120641805</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.20362045596151</v>
+        <v>26.40478573251075</v>
       </c>
       <c r="C16">
-        <v>11.01758510666169</v>
+        <v>13.80879681806464</v>
       </c>
       <c r="D16">
-        <v>4.576588795666877</v>
+        <v>4.379903929879837</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>23.5527868344234</v>
+        <v>22.01976469909087</v>
       </c>
       <c r="G16">
-        <v>3.610230177256275</v>
+        <v>2.042586952357399</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>20.69466721194658</v>
+        <v>13.21320838761821</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>10.79191785834601</v>
+        <v>9.243381789242937</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>16.73157373109869</v>
+        <v>11.07322427447469</v>
       </c>
       <c r="O16">
-        <v>20.66439622661946</v>
+        <v>16.29555091359745</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.97214892455167</v>
+        <v>25.85141563482622</v>
       </c>
       <c r="C17">
-        <v>10.93397565252696</v>
+        <v>13.60441836646439</v>
       </c>
       <c r="D17">
-        <v>4.559719046345382</v>
+        <v>4.330625296868182</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>23.51093864687859</v>
+        <v>21.67380847498835</v>
       </c>
       <c r="G17">
-        <v>3.611045378707546</v>
+        <v>2.044903796905528</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>20.72400572315453</v>
+        <v>13.18405353765756</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>10.77301188334006</v>
+        <v>9.107561347070673</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>16.74940947149239</v>
+        <v>11.12628634501478</v>
       </c>
       <c r="O17">
-        <v>20.66134957491216</v>
+        <v>16.10904570437735</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.83768929408067</v>
+        <v>25.52816778345927</v>
       </c>
       <c r="C18">
-        <v>10.8854975145716</v>
+        <v>13.48549075111445</v>
       </c>
       <c r="D18">
-        <v>4.549957476831582</v>
+        <v>4.302003120747834</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>23.48756732773759</v>
+        <v>21.47485544367256</v>
       </c>
       <c r="G18">
-        <v>3.611520851755873</v>
+        <v>2.046244508116958</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>20.74138546919397</v>
+        <v>13.16924561805093</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>10.76233478665404</v>
+        <v>9.029140719211055</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>16.75984249315107</v>
+        <v>11.15720163012376</v>
       </c>
       <c r="O18">
-        <v>20.66016841303761</v>
+        <v>16.00285441792375</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.7919402055002</v>
+        <v>25.41786638351258</v>
       </c>
       <c r="C19">
-        <v>10.86901800960049</v>
+        <v>13.44498930097249</v>
       </c>
       <c r="D19">
-        <v>4.546642451567086</v>
+        <v>4.292264841164326</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>23.47977473433139</v>
+        <v>21.40750344684469</v>
       </c>
       <c r="G19">
-        <v>3.611682972259236</v>
+        <v>2.046699871207046</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>20.74735657213689</v>
+        <v>13.16456332339133</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>10.75875378791044</v>
+        <v>9.002539084295854</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>16.76340490299743</v>
+        <v>11.16773624049616</v>
       </c>
       <c r="O19">
-        <v>20.65986659747325</v>
+        <v>15.96708707117652</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.99692734261043</v>
+        <v>25.91083594797557</v>
       </c>
       <c r="C20">
-        <v>10.94291644172074</v>
+        <v>13.62631740323321</v>
       </c>
       <c r="D20">
-        <v>4.561520948571099</v>
+        <v>4.335900026614711</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>23.51532127980909</v>
+        <v>21.71063388616577</v>
       </c>
       <c r="G20">
-        <v>3.610957917369672</v>
+        <v>2.044656330339494</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>20.72083029419735</v>
+        <v>13.18695286184604</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>10.77500410980616</v>
+        <v>9.122051169713183</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>16.74749278371101</v>
+        <v>11.12059671190845</v>
       </c>
       <c r="O20">
-        <v>20.66161478124641</v>
+        <v>16.12878790247867</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.66957094230913</v>
+        <v>27.50803676198406</v>
       </c>
       <c r="C21">
-        <v>11.18649278471553</v>
+        <v>14.2190338682474</v>
       </c>
       <c r="D21">
-        <v>4.610801900808721</v>
+        <v>4.47914587565185</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>23.64305827359942</v>
+        <v>22.72917836893917</v>
       </c>
       <c r="G21">
-        <v>3.608600464068305</v>
+        <v>2.03788538429685</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>20.63774797308947</v>
+        <v>13.28600568655442</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>10.8319408722466</v>
+        <v>9.519883517216583</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>16.69611228106403</v>
+        <v>10.96699178516491</v>
       </c>
       <c r="O21">
-        <v>20.67431191348195</v>
+        <v>16.68490048682285</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.09659844381068</v>
+        <v>28.50830692219432</v>
       </c>
       <c r="C22">
-        <v>11.3420068279014</v>
+        <v>14.59389132124985</v>
       </c>
       <c r="D22">
-        <v>4.64246038034022</v>
+        <v>4.570181231335955</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>23.73263241660718</v>
+        <v>23.39425286913435</v>
       </c>
       <c r="G22">
-        <v>3.607118080152247</v>
+        <v>2.033526378435385</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>20.58797174616848</v>
+        <v>13.36938957622407</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>10.87085457440242</v>
+        <v>9.776862368626482</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>16.66408084614622</v>
+        <v>10.87029136121029</v>
       </c>
       <c r="O22">
-        <v>20.68769183969404</v>
+        <v>17.05768385230266</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.86987304942739</v>
+        <v>27.97840243264031</v>
       </c>
       <c r="C23">
-        <v>11.25935275898681</v>
+        <v>14.39497952118606</v>
       </c>
       <c r="D23">
-        <v>4.625615277265003</v>
+        <v>4.521835067237694</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>23.68427443088498</v>
+        <v>23.03938228104308</v>
       </c>
       <c r="G23">
-        <v>3.607903933950115</v>
+        <v>2.035847114546319</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>20.61412317423703</v>
+        <v>13.32312391006961</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>10.84993249911189</v>
+        <v>9.639999914174517</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>16.68103511420959</v>
+        <v>10.92155580637793</v>
       </c>
       <c r="O23">
-        <v>20.68008615024548</v>
+        <v>16.85788184488838</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.98572932000375</v>
+        <v>25.88398794140544</v>
       </c>
       <c r="C24">
-        <v>10.93887558535538</v>
+        <v>13.61642129239369</v>
       </c>
       <c r="D24">
-        <v>4.560706504252862</v>
+        <v>4.333516227205513</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>23.51333774771131</v>
+        <v>21.69398528838133</v>
       </c>
       <c r="G24">
-        <v>3.610997437446597</v>
+        <v>2.04476818272667</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>20.72226430903105</v>
+        <v>13.1856360056879</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>10.77410282496451</v>
+        <v>9.115501362149509</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>16.7483587605701</v>
+        <v>11.12316772226857</v>
       </c>
       <c r="O24">
-        <v>20.66149310465155</v>
+        <v>16.1198592335382</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.98207282687133</v>
+        <v>23.43470011724027</v>
       </c>
       <c r="C25">
-        <v>10.57849868768467</v>
+        <v>12.72434029238457</v>
       </c>
       <c r="D25">
-        <v>4.488471344762172</v>
+        <v>4.119822301542259</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>23.35572217997017</v>
+        <v>20.24477926712321</v>
       </c>
       <c r="G25">
-        <v>3.61458647319513</v>
+        <v>2.054704698664618</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>20.85820381731295</v>
+        <v>13.1115518544235</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>10.69987112498742</v>
+        <v>8.538578657949456</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>16.8276477385981</v>
+        <v>11.3556850959661</v>
       </c>
       <c r="O25">
-        <v>20.66326950348931</v>
+        <v>15.36533920511338</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_20/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_20/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.46433838136233</v>
+        <v>13.57055305118075</v>
       </c>
       <c r="C2">
-        <v>12.0246120186295</v>
+        <v>8.961128174876768</v>
       </c>
       <c r="D2">
-        <v>3.954063574552654</v>
+        <v>11.0459107968799</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>19.18572357245857</v>
+        <v>21.64795809426807</v>
       </c>
       <c r="G2">
-        <v>2.062322180984935</v>
+        <v>20.53465548125047</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1.707720366873518</v>
       </c>
       <c r="I2">
-        <v>13.11406807465228</v>
+        <v>2.676243736465545</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>8.829724627913956</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>13.37100919412368</v>
       </c>
       <c r="L2">
-        <v>8.10666620998963</v>
+        <v>9.195021324814796</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>12.49221011918068</v>
       </c>
       <c r="N2">
-        <v>11.53912313812181</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>14.8471118953487</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>14.06277395924566</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.02319109682921</v>
+        <v>12.73464319262619</v>
       </c>
       <c r="C3">
-        <v>11.52511560709364</v>
+        <v>8.519335830916607</v>
       </c>
       <c r="D3">
-        <v>3.836889678300152</v>
+        <v>10.4467391154416</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>18.47696695716643</v>
+        <v>21.30195085315557</v>
       </c>
       <c r="G3">
-        <v>2.06768701449376</v>
+        <v>20.45134922202131</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1.917151980326434</v>
       </c>
       <c r="I3">
-        <v>13.14784668125425</v>
+        <v>2.805366788968303</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>8.892202564364473</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>13.5420227695411</v>
       </c>
       <c r="L3">
-        <v>7.811115149262267</v>
+        <v>8.833876554301169</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>11.82113926361799</v>
       </c>
       <c r="N3">
-        <v>11.67079000856025</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>14.51992837798853</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>14.12590147581761</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.08559490617048</v>
+        <v>12.19062056691075</v>
       </c>
       <c r="C4">
-        <v>11.20659240948783</v>
+        <v>8.239404505963199</v>
       </c>
       <c r="D4">
-        <v>3.762720764696665</v>
+        <v>10.06231487474059</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>18.0477624954417</v>
+        <v>21.09325652661834</v>
       </c>
       <c r="G4">
-        <v>2.071085322099837</v>
+        <v>20.41157513676723</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2.050750187066075</v>
       </c>
       <c r="I4">
-        <v>13.18322140170979</v>
+        <v>2.888339148748662</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>8.933106103593223</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>13.65059765386204</v>
       </c>
       <c r="L4">
-        <v>7.628885973762328</v>
+        <v>8.603926998786223</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>11.38900443595583</v>
       </c>
       <c r="N4">
-        <v>11.75518126707595</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>14.33107836412647</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>14.17029244221473</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.69018305880297</v>
+        <v>11.95873023251533</v>
       </c>
       <c r="C5">
-        <v>11.07393189042289</v>
+        <v>8.132776813423161</v>
       </c>
       <c r="D5">
-        <v>3.731964542127235</v>
+        <v>9.903850361208061</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>17.87461296527062</v>
+        <v>21.00238789300668</v>
       </c>
       <c r="G5">
-        <v>2.072496998480478</v>
+        <v>20.38715786480043</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2.106611401180027</v>
       </c>
       <c r="I5">
-        <v>13.20114073745543</v>
+        <v>2.925979144246529</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>8.948680881696612</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>13.69177989881828</v>
       </c>
       <c r="L5">
-        <v>7.554542680660134</v>
+        <v>8.508137492150411</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>11.20987627153826</v>
       </c>
       <c r="N5">
-        <v>11.79045306988113</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>14.25716926377842</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>14.18538640004682</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.62371771771369</v>
+        <v>11.91671535991689</v>
       </c>
       <c r="C6">
-        <v>11.05173470101549</v>
+        <v>8.126644592838089</v>
       </c>
       <c r="D6">
-        <v>3.726826225029504</v>
+        <v>9.880033262996715</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>17.84597519631506</v>
+        <v>20.97901065695955</v>
       </c>
       <c r="G6">
-        <v>2.072733044774851</v>
+        <v>20.36985217332944</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2.116141741656018</v>
       </c>
       <c r="I6">
-        <v>13.20432272733134</v>
+        <v>2.936016678367651</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>8.949203159316101</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>13.69385125029386</v>
       </c>
       <c r="L6">
-        <v>7.542196310811014</v>
+        <v>8.491993229096563</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>11.18219038243097</v>
       </c>
       <c r="N6">
-        <v>11.79636290286736</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>14.24508122988944</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>14.18264038515065</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.0803163308299</v>
+        <v>12.17939501099127</v>
       </c>
       <c r="C7">
-        <v>11.204814717326</v>
+        <v>8.269401276231324</v>
       </c>
       <c r="D7">
-        <v>3.762308090720034</v>
+        <v>10.06751716528469</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>18.04541989324462</v>
+        <v>21.06936923971626</v>
       </c>
       <c r="G7">
-        <v>2.07110425099642</v>
+        <v>20.37468309537321</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2.051972908993171</v>
       </c>
       <c r="I7">
-        <v>13.1834491130331</v>
+        <v>2.898705203961432</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>8.9275853355583</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>13.63798710181944</v>
       </c>
       <c r="L7">
-        <v>7.627883543204267</v>
+        <v>8.602321836729452</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>11.39293275704856</v>
       </c>
       <c r="N7">
-        <v>11.75565339760946</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>14.33006923675222</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>14.15594157064142</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.97832810182655</v>
+        <v>13.27876869687103</v>
       </c>
       <c r="C8">
-        <v>11.85490476562438</v>
+        <v>8.849980643013655</v>
       </c>
       <c r="D8">
-        <v>3.914139180176066</v>
+        <v>10.85185282940461</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>18.94025137175306</v>
+        <v>21.49865528548411</v>
       </c>
       <c r="G8">
-        <v>2.064150713101506</v>
+        <v>20.45565644493803</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1.779487940658855</v>
       </c>
       <c r="I8">
-        <v>13.1225713804817</v>
+        <v>2.732629356590742</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>8.843197029455716</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>13.41184300832879</v>
       </c>
       <c r="L8">
-        <v>8.004979555639332</v>
+        <v>9.07186259032485</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>12.2729558346261</v>
       </c>
       <c r="N8">
-        <v>11.58377899778296</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>14.73181549512676</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>14.06418503756626</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.28545680861489</v>
+        <v>15.20276657665234</v>
       </c>
       <c r="C9">
-        <v>13.03166528342272</v>
+        <v>9.865085822246117</v>
       </c>
       <c r="D9">
-        <v>4.193162125610509</v>
+        <v>12.24309628305296</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>20.73217903533051</v>
+        <v>22.40689977494505</v>
       </c>
       <c r="G9">
-        <v>2.051312781605926</v>
+        <v>20.7734667109657</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1.831017935429365</v>
       </c>
       <c r="I9">
-        <v>13.12718083494418</v>
+        <v>2.536067658377446</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>8.708724082030731</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>13.02079690879049</v>
       </c>
       <c r="L9">
-        <v>8.734210905884625</v>
+        <v>9.925056592369648</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>13.82545329235912</v>
       </c>
       <c r="N9">
-        <v>11.27541791399164</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>15.61381008236784</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>13.9570814408172</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.46725851794606</v>
+        <v>16.46515352684778</v>
       </c>
       <c r="C10">
-        <v>13.83193049584015</v>
+        <v>10.55910485966931</v>
       </c>
       <c r="D10">
-        <v>4.385488856843313</v>
+        <v>13.02699510229474</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>22.05924164560419</v>
+        <v>22.89907619049217</v>
       </c>
       <c r="G10">
-        <v>2.042323664827488</v>
+        <v>20.90344694988681</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2.148876980849042</v>
       </c>
       <c r="I10">
-        <v>13.21680501735927</v>
+        <v>2.744017046728991</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>8.598251294720933</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>12.7105299721664</v>
       </c>
       <c r="L10">
-        <v>9.258837819128669</v>
+        <v>10.32608601949735</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>14.86047606032198</v>
       </c>
       <c r="N10">
-        <v>11.06722363447418</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>16.31697793200426</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>13.84386271173989</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.40709090114033</v>
+        <v>17.01205274508557</v>
       </c>
       <c r="C11">
-        <v>14.1813524231321</v>
+        <v>10.74656864724059</v>
       </c>
       <c r="D11">
-        <v>4.470012822080802</v>
+        <v>12.0471449566843</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>22.66320094546483</v>
+        <v>21.56446378174385</v>
       </c>
       <c r="G11">
-        <v>2.038320174430667</v>
+        <v>19.63496399285666</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2.954973229797213</v>
       </c>
       <c r="I11">
-        <v>13.27851851780414</v>
+        <v>2.811645232937054</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>8.347772656058956</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>12.25903837016441</v>
       </c>
       <c r="L11">
-        <v>9.494276030475826</v>
+        <v>8.994154277964519</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>15.26928692238144</v>
       </c>
       <c r="N11">
-        <v>10.97673295200797</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>16.64831688224744</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>13.26619174864528</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.75549861672244</v>
+        <v>17.22828806205411</v>
       </c>
       <c r="C12">
-        <v>14.31152560398779</v>
+        <v>10.72297549472364</v>
       </c>
       <c r="D12">
-        <v>4.50157788637499</v>
+        <v>11.03975153341038</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>22.89181087313938</v>
+        <v>20.36273068514572</v>
       </c>
       <c r="G12">
-        <v>2.036815575254029</v>
+        <v>18.58179038575936</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>4.182689242777886</v>
       </c>
       <c r="I12">
-        <v>13.30507418986571</v>
+        <v>2.822355756188418</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>8.168694462004167</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>11.97474088184463</v>
       </c>
       <c r="L12">
-        <v>9.582914919078668</v>
+        <v>7.866309610999105</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>15.39629295608115</v>
       </c>
       <c r="N12">
-        <v>10.94309670810435</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>16.77539155675392</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>12.82471056176328</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.68079429088455</v>
+        <v>17.20086750293681</v>
       </c>
       <c r="C13">
-        <v>14.28358645969035</v>
+        <v>10.57447567500768</v>
       </c>
       <c r="D13">
-        <v>4.494799686468236</v>
+        <v>9.931178547220263</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>22.84258175882615</v>
+        <v>19.15153180311315</v>
       </c>
       <c r="G13">
-        <v>2.037139123804911</v>
+        <v>17.57395154341911</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>5.493266327892787</v>
       </c>
       <c r="I13">
-        <v>13.29921053959955</v>
+        <v>2.795399378739219</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>8.02565836909362</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>11.78364743336832</v>
       </c>
       <c r="L13">
-        <v>9.563848658819138</v>
+        <v>6.850572557271541</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>15.32577476506601</v>
       </c>
       <c r="N13">
-        <v>10.95031240995553</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>16.74795307946675</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>12.44093229331117</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.43590413163627</v>
+        <v>17.06938210558447</v>
       </c>
       <c r="C14">
-        <v>14.19210505071021</v>
+        <v>10.42030068694269</v>
       </c>
       <c r="D14">
-        <v>4.472618646683569</v>
+        <v>9.098792032253733</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>22.6820114225123</v>
+        <v>18.29935581279673</v>
       </c>
       <c r="G14">
-        <v>2.038196166268964</v>
+        <v>16.88757586002712</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>6.442817278784772</v>
       </c>
       <c r="I14">
-        <v>13.2806384384026</v>
+        <v>2.760976375643668</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>7.941936193052852</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>11.69311900546949</v>
       </c>
       <c r="L14">
-        <v>9.501579025163768</v>
+        <v>6.240509300982768</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>15.18787105332008</v>
       </c>
       <c r="N14">
-        <v>10.97395288999036</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>16.65873948777927</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>12.19914869666076</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.28492958001299</v>
+        <v>16.98204819675148</v>
       </c>
       <c r="C15">
-        <v>14.13578957991365</v>
+        <v>10.36562238271511</v>
       </c>
       <c r="D15">
-        <v>4.458974083195209</v>
+        <v>8.874804430713578</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>22.58364139652408</v>
+        <v>18.0845294363804</v>
       </c>
       <c r="G15">
-        <v>2.038845097162262</v>
+        <v>16.72135253845006</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>6.68226303966541</v>
       </c>
       <c r="I15">
-        <v>13.26968248329867</v>
+        <v>2.745994464374813</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>7.92768967639828</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>11.68650736405242</v>
       </c>
       <c r="L15">
-        <v>9.463368408172441</v>
+        <v>6.107763682620526</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>15.11342430516426</v>
       </c>
       <c r="N15">
-        <v>10.98851626134391</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>16.60430120641805</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>12.14882007343446</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.40478573251075</v>
+        <v>16.46788609711337</v>
       </c>
       <c r="C16">
-        <v>13.80879681806464</v>
+        <v>10.11678324741456</v>
       </c>
       <c r="D16">
-        <v>4.379903929879837</v>
+        <v>8.699033102131191</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>22.01976469909087</v>
+        <v>18.08996034401178</v>
       </c>
       <c r="G16">
-        <v>2.042586952357399</v>
+        <v>16.8442996402797</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>6.467865595265048</v>
       </c>
       <c r="I16">
-        <v>13.21320838761821</v>
+        <v>2.665881204615809</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>8.001801721642497</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>11.85380032415191</v>
       </c>
       <c r="L16">
-        <v>9.243381789242937</v>
+        <v>6.099954855852226</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>14.70226792567269</v>
       </c>
       <c r="N16">
-        <v>11.07322427447469</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>16.29555091359745</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>12.27015902522875</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.85141563482622</v>
+        <v>16.13737128639908</v>
       </c>
       <c r="C17">
-        <v>13.60441836646439</v>
+        <v>10.00916746396475</v>
       </c>
       <c r="D17">
-        <v>4.330625296868182</v>
+        <v>9.025080473872373</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>21.67380847498835</v>
+        <v>18.54673880149936</v>
       </c>
       <c r="G17">
-        <v>2.044903796905528</v>
+        <v>17.2997598699893</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>5.718037418557849</v>
       </c>
       <c r="I17">
-        <v>13.18405353765756</v>
+        <v>2.622755749744619</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>8.102354888567287</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>12.02756249370122</v>
       </c>
       <c r="L17">
-        <v>9.107561347070673</v>
+        <v>6.39799881281575</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>14.45728283298743</v>
       </c>
       <c r="N17">
-        <v>11.12628634501478</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>16.10904570437735</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>12.48911859205462</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.52816778345927</v>
+        <v>15.94103719034873</v>
       </c>
       <c r="C18">
-        <v>13.48549075111445</v>
+        <v>9.991896251279655</v>
       </c>
       <c r="D18">
-        <v>4.302003120747834</v>
+        <v>9.821051251455119</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>21.47485544367256</v>
+        <v>19.46969318070422</v>
       </c>
       <c r="G18">
-        <v>2.046244508116958</v>
+        <v>18.12322393193703</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>4.435304667623257</v>
       </c>
       <c r="I18">
-        <v>13.16924561805093</v>
+        <v>2.60339062188487</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>8.242245786854367</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>12.24217525627016</v>
       </c>
       <c r="L18">
-        <v>9.029140719211055</v>
+        <v>7.111166751514817</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>14.32897702624117</v>
       </c>
       <c r="N18">
-        <v>11.15720163012376</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>16.00285441792375</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>12.83047247386386</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.41786638351258</v>
+        <v>15.85886365995991</v>
       </c>
       <c r="C19">
-        <v>13.44498930097249</v>
+        <v>10.10026271461533</v>
       </c>
       <c r="D19">
-        <v>4.292264841164326</v>
+        <v>10.93919783423577</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>21.40750344684469</v>
+        <v>20.68176469990152</v>
       </c>
       <c r="G19">
-        <v>2.046699871207046</v>
+        <v>19.13784538016577</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>3.029770239889712</v>
       </c>
       <c r="I19">
-        <v>13.16456332339133</v>
+        <v>2.616716587008102</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>8.397731874189907</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>12.46812932742064</v>
       </c>
       <c r="L19">
-        <v>9.002539084295854</v>
+        <v>8.221284401836119</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>14.31691499336502</v>
       </c>
       <c r="N19">
-        <v>11.16773624049616</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>15.96708707117652</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>13.23086656473099</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.91083594797557</v>
+        <v>16.12411195127927</v>
       </c>
       <c r="C20">
-        <v>13.62631740323321</v>
+        <v>10.4603175164583</v>
       </c>
       <c r="D20">
-        <v>4.335900026614711</v>
+        <v>12.83685598633777</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>21.71063388616577</v>
+        <v>22.69674952409188</v>
       </c>
       <c r="G20">
-        <v>2.044656330339494</v>
+        <v>20.7499653055759</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2.063527913268492</v>
       </c>
       <c r="I20">
-        <v>13.18695286184604</v>
+        <v>2.702244582062884</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>8.607857948265279</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>12.74861713799094</v>
       </c>
       <c r="L20">
-        <v>9.122051169713183</v>
+        <v>10.21387775130091</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>14.61167685721795</v>
       </c>
       <c r="N20">
-        <v>11.12059671190845</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>16.12878790247867</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>13.82444288451009</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.50803676198406</v>
+        <v>17.0484516373036</v>
       </c>
       <c r="C21">
-        <v>14.2190338682474</v>
+        <v>10.98552406583465</v>
       </c>
       <c r="D21">
-        <v>4.47914587565185</v>
+        <v>13.64724534407182</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>22.72917836893917</v>
+        <v>23.3687057220676</v>
       </c>
       <c r="G21">
-        <v>2.03788538429685</v>
+        <v>21.12702513124345</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2.326251907467551</v>
       </c>
       <c r="I21">
-        <v>13.28600568655442</v>
+        <v>2.862176487336384</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>8.56648973380435</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>12.57945372528787</v>
       </c>
       <c r="L21">
-        <v>9.519883517216583</v>
+        <v>10.78844501023206</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>15.37746464431739</v>
       </c>
       <c r="N21">
-        <v>10.96699178516491</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>16.68490048682285</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>13.85015356624367</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.50830692219432</v>
+        <v>17.63378086217632</v>
       </c>
       <c r="C22">
-        <v>14.59389132124985</v>
+        <v>11.27922355347374</v>
       </c>
       <c r="D22">
-        <v>4.570181231335955</v>
+        <v>14.0735339347897</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>23.39425286913435</v>
+        <v>23.74358501503049</v>
       </c>
       <c r="G22">
-        <v>2.033526378435385</v>
+        <v>21.3538100439243</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2.485806122705474</v>
       </c>
       <c r="I22">
-        <v>13.36938957622407</v>
+        <v>2.958595439642167</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>8.538074851546325</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>12.47208225076156</v>
       </c>
       <c r="L22">
-        <v>9.776862368626482</v>
+        <v>11.06212043402266</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>15.84967078063391</v>
       </c>
       <c r="N22">
-        <v>10.87029136121029</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>17.05768385230266</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>13.86191559934634</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.97840243264031</v>
+        <v>17.33085975005286</v>
       </c>
       <c r="C23">
-        <v>14.39497952118606</v>
+        <v>11.09412137388712</v>
       </c>
       <c r="D23">
-        <v>4.521835067237694</v>
+        <v>13.84105248073653</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>23.03938228104308</v>
+        <v>23.5669499941655</v>
       </c>
       <c r="G23">
-        <v>2.035847114546319</v>
+        <v>21.27178317846216</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2.401397548263136</v>
       </c>
       <c r="I23">
-        <v>13.32312391006961</v>
+        <v>2.902627289573688</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>8.55959041604342</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>12.54456539613457</v>
       </c>
       <c r="L23">
-        <v>9.639999914174517</v>
+        <v>10.91711741576212</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>15.59357485780582</v>
       </c>
       <c r="N23">
-        <v>10.92155580637793</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>16.85788184488838</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>13.87170549594748</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.88398794140544</v>
+        <v>16.11872203721108</v>
       </c>
       <c r="C24">
-        <v>13.61642129239369</v>
+        <v>10.41937257535554</v>
       </c>
       <c r="D24">
-        <v>4.333516227205513</v>
+        <v>12.93757135524944</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>21.69398528838133</v>
+        <v>22.86470597406447</v>
       </c>
       <c r="G24">
-        <v>2.04476818272667</v>
+        <v>20.92533776729642</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2.073567726590318</v>
       </c>
       <c r="I24">
-        <v>13.1856360056879</v>
+        <v>2.694549707153495</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>8.636604189845158</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>12.80264430815487</v>
       </c>
       <c r="L24">
-        <v>9.115501362149509</v>
+        <v>10.34984927285221</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>14.59399267246718</v>
       </c>
       <c r="N24">
-        <v>11.12316772226857</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>16.1198592335382</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>13.8968400118501</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.43470011724027</v>
+        <v>14.69622177951634</v>
       </c>
       <c r="C25">
-        <v>12.72434029238457</v>
+        <v>9.648360066409492</v>
       </c>
       <c r="D25">
-        <v>4.119822301542259</v>
+        <v>11.89291436046413</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>20.24477926712321</v>
+        <v>22.12014072720415</v>
       </c>
       <c r="G25">
-        <v>2.054704698664618</v>
+        <v>20.61266025963463</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1.703327691389158</v>
       </c>
       <c r="I25">
-        <v>13.1115518544235</v>
+        <v>2.519956969137985</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>8.732550696513588</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>13.09970657675123</v>
       </c>
       <c r="L25">
-        <v>8.538578657949456</v>
+        <v>9.701448836265147</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>13.43328731185854</v>
       </c>
       <c r="N25">
-        <v>11.3556850959661</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>15.36533920511338</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>13.95472614445864</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_20/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_20/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.57055305118075</v>
+        <v>13.56426999679316</v>
       </c>
       <c r="C2">
-        <v>8.961128174876768</v>
+        <v>9.032223385119829</v>
       </c>
       <c r="D2">
-        <v>11.0459107968799</v>
+        <v>11.13687761027267</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>21.64795809426807</v>
+        <v>21.34822428543376</v>
       </c>
       <c r="G2">
-        <v>20.53465548125047</v>
+        <v>19.40667505535851</v>
       </c>
       <c r="H2">
-        <v>1.707720366873518</v>
+        <v>1.681121450416787</v>
       </c>
       <c r="I2">
-        <v>2.676243736465545</v>
+        <v>2.586351046834722</v>
       </c>
       <c r="J2">
-        <v>8.829724627913956</v>
+        <v>9.098977115516584</v>
       </c>
       <c r="K2">
-        <v>13.37100919412368</v>
+        <v>13.01730046098238</v>
       </c>
       <c r="L2">
-        <v>9.195021324814796</v>
+        <v>11.1614801567083</v>
       </c>
       <c r="M2">
-        <v>12.49221011918068</v>
+        <v>8.057536957785334</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>9.212295381255474</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>12.55064610792001</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>14.06277395924566</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>13.81593461220062</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.73464319262619</v>
+        <v>12.75477918523713</v>
       </c>
       <c r="C3">
-        <v>8.519335830916607</v>
+        <v>8.495741388307625</v>
       </c>
       <c r="D3">
-        <v>10.4467391154416</v>
+        <v>10.52788567342866</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>21.30195085315557</v>
+        <v>21.03881234845186</v>
       </c>
       <c r="G3">
-        <v>20.45134922202131</v>
+        <v>19.4091657235881</v>
       </c>
       <c r="H3">
-        <v>1.917151980326434</v>
+        <v>1.884434325325896</v>
       </c>
       <c r="I3">
-        <v>2.805366788968303</v>
+        <v>2.701063945874016</v>
       </c>
       <c r="J3">
-        <v>8.892202564364473</v>
+        <v>9.135926555873491</v>
       </c>
       <c r="K3">
-        <v>13.5420227695411</v>
+        <v>13.19525320733245</v>
       </c>
       <c r="L3">
-        <v>8.833876554301169</v>
+        <v>11.34166363411971</v>
       </c>
       <c r="M3">
-        <v>11.82113926361799</v>
+        <v>8.184126159888024</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>8.855671314620901</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>11.86724319960518</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>14.12590147581761</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>13.89672368794329</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.19062056691075</v>
+        <v>12.2283146973944</v>
       </c>
       <c r="C4">
-        <v>8.239404505963199</v>
+        <v>8.154323540925249</v>
       </c>
       <c r="D4">
-        <v>10.06231487474059</v>
+        <v>10.13740143181928</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>21.09325652661834</v>
+        <v>20.85170583148517</v>
       </c>
       <c r="G4">
-        <v>20.41157513676723</v>
+        <v>19.42303024040796</v>
       </c>
       <c r="H4">
-        <v>2.050750187066075</v>
+        <v>2.014168993172008</v>
       </c>
       <c r="I4">
-        <v>2.888339148748662</v>
+        <v>2.775111944101291</v>
       </c>
       <c r="J4">
-        <v>8.933106103593223</v>
+        <v>9.159711034915128</v>
       </c>
       <c r="K4">
-        <v>13.65059765386204</v>
+        <v>13.30713382381783</v>
       </c>
       <c r="L4">
-        <v>8.603926998786223</v>
+        <v>11.45695401312534</v>
       </c>
       <c r="M4">
-        <v>11.38900443595583</v>
+        <v>8.278197921907838</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>8.628715557811875</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>11.42722374386614</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>14.17029244221473</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>13.95090011727105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.95873023251533</v>
+        <v>12.00398125959263</v>
       </c>
       <c r="C5">
-        <v>8.132776813423161</v>
+        <v>8.02218705756847</v>
       </c>
       <c r="D5">
-        <v>9.903850361208061</v>
+        <v>9.976430643142404</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>21.00238789300668</v>
+        <v>20.76950611067849</v>
       </c>
       <c r="G5">
-        <v>20.38715786480043</v>
+        <v>19.4207212376092</v>
       </c>
       <c r="H5">
-        <v>2.106611401180027</v>
+        <v>2.068423485726767</v>
       </c>
       <c r="I5">
-        <v>2.925979144246529</v>
+        <v>2.809615855763208</v>
       </c>
       <c r="J5">
-        <v>8.948680881696612</v>
+        <v>9.16797116271113</v>
       </c>
       <c r="K5">
-        <v>13.69177989881828</v>
+        <v>13.34958240007118</v>
       </c>
       <c r="L5">
-        <v>8.508137492150411</v>
+        <v>11.50109372310882</v>
       </c>
       <c r="M5">
-        <v>11.20987627153826</v>
+        <v>8.318967381421741</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>8.534204984600139</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>11.24479054781123</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>14.18538640004682</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>13.96981587687011</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.91671535991689</v>
+        <v>11.96330662965848</v>
       </c>
       <c r="C6">
-        <v>8.126644592838089</v>
+        <v>8.012214488095177</v>
       </c>
       <c r="D6">
-        <v>9.880033262996715</v>
+        <v>9.952146653107308</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>20.97901065695955</v>
+        <v>20.74769439537901</v>
       </c>
       <c r="G6">
-        <v>20.36985217332944</v>
+        <v>19.40718204577243</v>
       </c>
       <c r="H6">
-        <v>2.116141741656018</v>
+        <v>2.077679712403808</v>
       </c>
       <c r="I6">
-        <v>2.936016678367651</v>
+        <v>2.819818613400741</v>
       </c>
       <c r="J6">
-        <v>8.949203159316101</v>
+        <v>9.1672764895774</v>
       </c>
       <c r="K6">
-        <v>13.69385125029386</v>
+        <v>13.35203576664865</v>
       </c>
       <c r="L6">
-        <v>8.491993229096563</v>
+        <v>11.50360936458578</v>
       </c>
       <c r="M6">
-        <v>11.18219038243097</v>
+        <v>8.324047560684509</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>8.518280082937919</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>11.21652295195315</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>14.18264038515065</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>13.96780573246088</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.17939501099127</v>
+        <v>12.21806581988721</v>
       </c>
       <c r="C7">
-        <v>8.269401276231324</v>
+        <v>8.180628616343979</v>
       </c>
       <c r="D7">
-        <v>10.06751716528469</v>
+        <v>10.14665729237689</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>21.06936923971626</v>
+        <v>20.8153040287199</v>
       </c>
       <c r="G7">
-        <v>20.37468309537321</v>
+        <v>19.45297198476941</v>
       </c>
       <c r="H7">
-        <v>2.051972908993171</v>
+        <v>2.015746811735884</v>
       </c>
       <c r="I7">
-        <v>2.898705203961432</v>
+        <v>2.787674090640825</v>
       </c>
       <c r="J7">
-        <v>8.9275853355583</v>
+        <v>9.125885479171576</v>
       </c>
       <c r="K7">
-        <v>13.63798710181944</v>
+        <v>13.29053775412616</v>
       </c>
       <c r="L7">
-        <v>8.602321836729452</v>
+        <v>11.43996591868421</v>
       </c>
       <c r="M7">
-        <v>11.39293275704856</v>
+        <v>8.270904625637614</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>8.62687121085597</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>11.42986675021072</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>14.15594157064142</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>13.92883873461452</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.27876869687103</v>
+        <v>13.28374081269461</v>
       </c>
       <c r="C8">
-        <v>8.849980643013655</v>
+        <v>8.876412113291478</v>
       </c>
       <c r="D8">
-        <v>10.85185282940461</v>
+        <v>10.95242542291499</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>21.49865528548411</v>
+        <v>21.17000247175772</v>
       </c>
       <c r="G8">
-        <v>20.45565644493803</v>
+        <v>19.57882649841461</v>
       </c>
       <c r="H8">
-        <v>1.779487940658855</v>
+        <v>1.751982735504763</v>
       </c>
       <c r="I8">
-        <v>2.732629356590742</v>
+        <v>2.64142022586903</v>
       </c>
       <c r="J8">
-        <v>8.843197029455716</v>
+        <v>9.012274287707717</v>
       </c>
       <c r="K8">
-        <v>13.41184300832879</v>
+        <v>13.04686965346374</v>
       </c>
       <c r="L8">
-        <v>9.07186259032485</v>
+        <v>11.1939100085933</v>
       </c>
       <c r="M8">
-        <v>12.2729558346261</v>
+        <v>8.079202060427319</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>9.089875514958587</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>12.32354793267473</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>14.06418503756626</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>13.79747418412057</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.20276657665234</v>
+        <v>15.14887308121213</v>
       </c>
       <c r="C9">
-        <v>9.865085822246117</v>
+        <v>10.10516279715267</v>
       </c>
       <c r="D9">
-        <v>12.24309628305296</v>
+        <v>12.36960405047786</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>22.40689977494505</v>
+        <v>21.97312513787463</v>
       </c>
       <c r="G9">
-        <v>20.7734667109657</v>
+        <v>19.74926396932318</v>
       </c>
       <c r="H9">
-        <v>1.831017935429365</v>
+        <v>1.843309685978759</v>
       </c>
       <c r="I9">
-        <v>2.536067658377446</v>
+        <v>2.599599387032738</v>
       </c>
       <c r="J9">
-        <v>8.708724082030731</v>
+        <v>8.90765136083311</v>
       </c>
       <c r="K9">
-        <v>13.02079690879049</v>
+        <v>12.6283492437715</v>
       </c>
       <c r="L9">
-        <v>9.925056592369648</v>
+        <v>10.78518898275424</v>
       </c>
       <c r="M9">
-        <v>13.82545329235912</v>
+        <v>7.858486775763872</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>9.932864782044607</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>13.90435393838999</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>13.9570814408172</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>13.63264519477574</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.46515352684778</v>
+        <v>16.37893216949317</v>
       </c>
       <c r="C10">
-        <v>10.55910485966931</v>
+        <v>10.91016468860799</v>
       </c>
       <c r="D10">
-        <v>13.02699510229474</v>
+        <v>13.18914839123178</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>22.89907619049217</v>
+        <v>22.32505515320216</v>
       </c>
       <c r="G10">
-        <v>20.90344694988681</v>
+        <v>20.17619968450825</v>
       </c>
       <c r="H10">
-        <v>2.148876980849042</v>
+        <v>2.149431952023872</v>
       </c>
       <c r="I10">
-        <v>2.744017046728991</v>
+        <v>2.784454566964133</v>
       </c>
       <c r="J10">
-        <v>8.598251294720933</v>
+        <v>8.663853899847897</v>
       </c>
       <c r="K10">
-        <v>12.7105299721664</v>
+        <v>12.27452700034307</v>
       </c>
       <c r="L10">
-        <v>10.32608601949735</v>
+        <v>10.46841759870705</v>
       </c>
       <c r="M10">
-        <v>14.86047606032198</v>
+        <v>7.729358743341558</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>10.32643198155605</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>14.95135397164446</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>13.84386271173989</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>13.43155875701344</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.01205274508557</v>
+        <v>16.93507841565322</v>
       </c>
       <c r="C11">
-        <v>10.74656864724059</v>
+        <v>11.03781579800549</v>
       </c>
       <c r="D11">
-        <v>12.0471449566843</v>
+        <v>12.24186042025594</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>21.56446378174385</v>
+        <v>20.88413363583003</v>
       </c>
       <c r="G11">
-        <v>19.63496399285666</v>
+        <v>19.77374408908107</v>
       </c>
       <c r="H11">
-        <v>2.954973229797213</v>
+        <v>2.951111541170766</v>
       </c>
       <c r="I11">
-        <v>2.811645232937054</v>
+        <v>2.844315937350107</v>
       </c>
       <c r="J11">
-        <v>8.347772656058956</v>
+        <v>8.199733754557284</v>
       </c>
       <c r="K11">
-        <v>12.25903837016441</v>
+        <v>11.82923758066537</v>
       </c>
       <c r="L11">
-        <v>8.994154277964519</v>
+        <v>10.15515885408592</v>
       </c>
       <c r="M11">
-        <v>15.26928692238144</v>
+        <v>7.408038217020368</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>8.990486978721158</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>15.34333483554038</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>13.26619174864528</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>12.7949331527757</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.22828806205411</v>
+        <v>17.1635220161074</v>
       </c>
       <c r="C12">
-        <v>10.72297549472364</v>
+        <v>10.95238270576124</v>
       </c>
       <c r="D12">
-        <v>11.03975153341038</v>
+        <v>11.24219532186051</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>20.36273068514572</v>
+        <v>19.66991288643839</v>
       </c>
       <c r="G12">
-        <v>18.58179038575936</v>
+        <v>19.12985934400267</v>
       </c>
       <c r="H12">
-        <v>4.182689242777886</v>
+        <v>4.179199157036685</v>
       </c>
       <c r="I12">
-        <v>2.822355756188418</v>
+        <v>2.852269574388586</v>
       </c>
       <c r="J12">
-        <v>8.168694462004167</v>
+        <v>7.993432246777125</v>
       </c>
       <c r="K12">
-        <v>11.97474088184463</v>
+        <v>11.57725013256488</v>
       </c>
       <c r="L12">
-        <v>7.866309610999105</v>
+        <v>9.99830583767935</v>
       </c>
       <c r="M12">
-        <v>15.39629295608115</v>
+        <v>7.192405199187412</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>7.861049999413552</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>15.45660578512471</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>12.82471056176328</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>12.35545040892414</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.20086750293681</v>
+        <v>17.15013279298801</v>
       </c>
       <c r="C13">
-        <v>10.57447567500768</v>
+        <v>10.7448707431151</v>
       </c>
       <c r="D13">
-        <v>9.931178547220263</v>
+        <v>10.11452255031419</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>19.15153180311315</v>
+        <v>18.54295521286138</v>
       </c>
       <c r="G13">
-        <v>17.57395154341911</v>
+        <v>18.03154914916409</v>
       </c>
       <c r="H13">
-        <v>5.493266327892787</v>
+        <v>5.491381679573402</v>
       </c>
       <c r="I13">
-        <v>2.795399378739219</v>
+        <v>2.828393289412287</v>
       </c>
       <c r="J13">
-        <v>8.02565836909362</v>
+        <v>7.944076278109629</v>
       </c>
       <c r="K13">
-        <v>11.78364743336832</v>
+        <v>11.44313697393712</v>
       </c>
       <c r="L13">
-        <v>6.850572557271541</v>
+        <v>9.923998640837549</v>
       </c>
       <c r="M13">
-        <v>15.32577476506601</v>
+        <v>7.044324021527492</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>6.846314316642285</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>15.37556894799875</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>12.44093229331117</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>12.03458899956205</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.06938210558447</v>
+        <v>17.02953775921809</v>
       </c>
       <c r="C14">
-        <v>10.42030068694269</v>
+        <v>10.54961442023967</v>
       </c>
       <c r="D14">
-        <v>9.098792032253733</v>
+        <v>9.257009504816924</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>18.29935581279673</v>
+        <v>17.78870264058125</v>
       </c>
       <c r="G14">
-        <v>16.88757586002712</v>
+        <v>17.07420647033998</v>
       </c>
       <c r="H14">
-        <v>6.442817278784772</v>
+        <v>6.443315084735129</v>
       </c>
       <c r="I14">
-        <v>2.760976375643668</v>
+        <v>2.799065275456542</v>
       </c>
       <c r="J14">
-        <v>7.941936193052852</v>
+        <v>7.961472828346052</v>
       </c>
       <c r="K14">
-        <v>11.69311900546949</v>
+        <v>11.39846156945754</v>
       </c>
       <c r="L14">
-        <v>6.240509300982768</v>
+        <v>9.901801972873644</v>
       </c>
       <c r="M14">
-        <v>15.18787105332008</v>
+        <v>6.973559475199635</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>6.23842846207099</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>15.23150300092248</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>12.19914869666076</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>11.85924342754794</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.98204819675148</v>
+        <v>16.94544918302632</v>
       </c>
       <c r="C15">
-        <v>10.36562238271511</v>
+        <v>10.48486001765212</v>
       </c>
       <c r="D15">
-        <v>8.874804430713578</v>
+        <v>9.02199010788561</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>18.0845294363804</v>
+        <v>17.61374397039904</v>
       </c>
       <c r="G15">
-        <v>16.72135253845006</v>
+        <v>16.75881268699389</v>
       </c>
       <c r="H15">
-        <v>6.68226303966541</v>
+        <v>6.682463087286607</v>
       </c>
       <c r="I15">
-        <v>2.745994464374813</v>
+        <v>2.787089368444924</v>
       </c>
       <c r="J15">
-        <v>7.92768967639828</v>
+        <v>7.988043331972077</v>
       </c>
       <c r="K15">
-        <v>11.68650736405242</v>
+        <v>11.40596393087467</v>
       </c>
       <c r="L15">
-        <v>6.107763682620526</v>
+        <v>9.906957711423871</v>
       </c>
       <c r="M15">
-        <v>15.11342430516426</v>
+        <v>6.968233871343678</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>6.106903880819364</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>15.15607268156343</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>12.14882007343446</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>11.83450328751516</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.46788609711337</v>
+        <v>16.43721356837321</v>
       </c>
       <c r="C16">
-        <v>10.11678324741456</v>
+        <v>10.23071503516616</v>
       </c>
       <c r="D16">
-        <v>8.699033102131191</v>
+        <v>8.805942196746805</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>18.08996034401178</v>
+        <v>17.75176790828722</v>
       </c>
       <c r="G16">
-        <v>16.8442996402797</v>
+        <v>16.22376368072647</v>
       </c>
       <c r="H16">
-        <v>6.467865595265048</v>
+        <v>6.46653158469103</v>
       </c>
       <c r="I16">
-        <v>2.665881204615809</v>
+        <v>2.719417111611978</v>
       </c>
       <c r="J16">
-        <v>8.001801721642497</v>
+        <v>8.2196071609804</v>
       </c>
       <c r="K16">
-        <v>11.85380032415191</v>
+        <v>11.59725187984602</v>
       </c>
       <c r="L16">
-        <v>6.099954855852226</v>
+        <v>10.02289620369145</v>
       </c>
       <c r="M16">
-        <v>14.70226792567269</v>
+        <v>7.096175491213945</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>6.105031613789869</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>14.74925085336815</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>12.27015902522875</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>12.03397842111247</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.13737128639908</v>
+        <v>16.10631088962553</v>
       </c>
       <c r="C17">
-        <v>10.00916746396475</v>
+        <v>10.13619686977414</v>
       </c>
       <c r="D17">
-        <v>9.025080473872373</v>
+        <v>9.119077638510788</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>18.54673880149936</v>
+        <v>18.24700903814649</v>
       </c>
       <c r="G17">
-        <v>17.2997598699893</v>
+        <v>16.40490178012819</v>
       </c>
       <c r="H17">
-        <v>5.718037418557849</v>
+        <v>5.715556178731473</v>
       </c>
       <c r="I17">
-        <v>2.622755749744619</v>
+        <v>2.682832183020887</v>
       </c>
       <c r="J17">
-        <v>8.102354888567287</v>
+        <v>8.388757808987533</v>
       </c>
       <c r="K17">
-        <v>12.02756249370122</v>
+        <v>11.76663109190247</v>
       </c>
       <c r="L17">
-        <v>6.39799881281575</v>
+        <v>10.13322540320948</v>
       </c>
       <c r="M17">
-        <v>14.45728283298743</v>
+        <v>7.222840534651959</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>6.405797422530648</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>14.50970246060609</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>12.48911859205462</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>12.27240573693894</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.94103719034873</v>
+        <v>15.90245183876723</v>
       </c>
       <c r="C18">
-        <v>9.991896251279655</v>
+        <v>10.15709611723548</v>
       </c>
       <c r="D18">
-        <v>9.821051251455119</v>
+        <v>9.917067985949943</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>19.46969318070422</v>
+        <v>19.15656579544784</v>
       </c>
       <c r="G18">
-        <v>18.12322393193703</v>
+        <v>17.08513418377795</v>
       </c>
       <c r="H18">
-        <v>4.435304667623257</v>
+        <v>4.431727064269985</v>
       </c>
       <c r="I18">
-        <v>2.60339062188487</v>
+        <v>2.664781097903927</v>
       </c>
       <c r="J18">
-        <v>8.242245786854367</v>
+        <v>8.549107812199388</v>
       </c>
       <c r="K18">
-        <v>12.24217525627016</v>
+        <v>11.95702562937824</v>
       </c>
       <c r="L18">
-        <v>7.111166751514817</v>
+        <v>10.26574652003304</v>
       </c>
       <c r="M18">
-        <v>14.32897702624117</v>
+        <v>7.374456211775702</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>7.119405416767896</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>14.39023559038768</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>12.83047247386386</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>12.6004077057306</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.85886365995991</v>
+        <v>15.80725951518333</v>
       </c>
       <c r="C19">
-        <v>10.10026271461533</v>
+        <v>10.32464999002056</v>
       </c>
       <c r="D19">
-        <v>10.93919783423577</v>
+        <v>11.04592347488294</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>20.68176469990152</v>
+        <v>20.32388174729093</v>
       </c>
       <c r="G19">
-        <v>19.13784538016577</v>
+        <v>18.01240387277905</v>
       </c>
       <c r="H19">
-        <v>3.029770239889712</v>
+        <v>3.035600156609453</v>
       </c>
       <c r="I19">
-        <v>2.616716587008102</v>
+        <v>2.677610600550842</v>
       </c>
       <c r="J19">
-        <v>8.397731874189907</v>
+        <v>8.697683616897004</v>
       </c>
       <c r="K19">
-        <v>12.46812932742064</v>
+        <v>12.14597102995859</v>
       </c>
       <c r="L19">
-        <v>8.221284401836119</v>
+        <v>10.4019437311062</v>
       </c>
       <c r="M19">
-        <v>14.31691499336502</v>
+        <v>7.530618624198092</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>8.228426194620733</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>14.38953431610224</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>13.23086656473099</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>12.96745932504842</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.12411195127927</v>
+        <v>16.04446434373774</v>
       </c>
       <c r="C20">
-        <v>10.4603175164583</v>
+        <v>10.79749841708099</v>
       </c>
       <c r="D20">
-        <v>12.83685598633777</v>
+        <v>12.97736105786414</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>22.69674952409188</v>
+        <v>22.2041234482805</v>
       </c>
       <c r="G20">
-        <v>20.7499653055759</v>
+        <v>19.70550102606041</v>
       </c>
       <c r="H20">
-        <v>2.063527913268492</v>
+        <v>2.068232044900796</v>
       </c>
       <c r="I20">
-        <v>2.702244582062884</v>
+        <v>2.753274495445898</v>
       </c>
       <c r="J20">
-        <v>8.607857948265279</v>
+        <v>8.803359443879666</v>
       </c>
       <c r="K20">
-        <v>12.74861713799094</v>
+        <v>12.3442232015581</v>
       </c>
       <c r="L20">
-        <v>10.21387775130091</v>
+        <v>10.53370088920557</v>
       </c>
       <c r="M20">
-        <v>14.61167685721795</v>
+        <v>7.738745563822595</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>10.21682432190272</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>14.70246926989746</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>13.82444288451009</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>13.46638247172566</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.0484516373036</v>
+        <v>16.95306949529512</v>
       </c>
       <c r="C21">
-        <v>10.98552406583465</v>
+        <v>11.34980056742214</v>
       </c>
       <c r="D21">
-        <v>13.64724534407182</v>
+        <v>13.87919910855831</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>23.3687057220676</v>
+        <v>22.53270985818473</v>
       </c>
       <c r="G21">
-        <v>21.12702513124345</v>
+        <v>21.58897432489393</v>
       </c>
       <c r="H21">
-        <v>2.326251907467551</v>
+        <v>2.31667120125803</v>
       </c>
       <c r="I21">
-        <v>2.862176487336384</v>
+        <v>2.889273936939881</v>
       </c>
       <c r="J21">
-        <v>8.56648973380435</v>
+        <v>8.225381771786433</v>
       </c>
       <c r="K21">
-        <v>12.57945372528787</v>
+        <v>12.04732098685836</v>
       </c>
       <c r="L21">
-        <v>10.78844501023206</v>
+        <v>10.28824183037462</v>
       </c>
       <c r="M21">
-        <v>15.37746464431739</v>
+        <v>7.631843536759416</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>10.78264253609887</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>15.4631620404531</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>13.85015356624367</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>13.26169181626922</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.63378086217632</v>
+        <v>17.53050018462696</v>
       </c>
       <c r="C22">
-        <v>11.27922355347374</v>
+        <v>11.65130086727627</v>
       </c>
       <c r="D22">
-        <v>14.0735339347897</v>
+        <v>14.36684922431623</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>23.74358501503049</v>
+        <v>22.67087782720123</v>
       </c>
       <c r="G22">
-        <v>21.3538100439243</v>
+        <v>22.9410532532479</v>
       </c>
       <c r="H22">
-        <v>2.485806122705474</v>
+        <v>2.467228284004672</v>
       </c>
       <c r="I22">
-        <v>2.958595439642167</v>
+        <v>2.969324976083314</v>
       </c>
       <c r="J22">
-        <v>8.538074851546325</v>
+        <v>7.901253075556289</v>
       </c>
       <c r="K22">
-        <v>12.47208225076156</v>
+        <v>11.8488598441529</v>
       </c>
       <c r="L22">
-        <v>11.06212043402266</v>
+        <v>10.1335081345658</v>
       </c>
       <c r="M22">
-        <v>15.84967078063391</v>
+        <v>7.56692184244941</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>11.05102063343648</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>15.93062728895489</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>13.86191559934634</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>13.10960954705234</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.33085975005286</v>
+        <v>17.23008253027448</v>
       </c>
       <c r="C23">
-        <v>11.09412137388712</v>
+        <v>11.4705360638767</v>
       </c>
       <c r="D23">
-        <v>13.84105248073653</v>
+        <v>14.09328982414292</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>23.5669499941655</v>
+        <v>22.65095508318875</v>
       </c>
       <c r="G23">
-        <v>21.27178317846216</v>
+        <v>22.07214966277925</v>
       </c>
       <c r="H23">
-        <v>2.401397548263136</v>
+        <v>2.388184497960008</v>
       </c>
       <c r="I23">
-        <v>2.902627289573688</v>
+        <v>2.921312232552034</v>
       </c>
       <c r="J23">
-        <v>8.55959041604342</v>
+        <v>8.11433890099808</v>
       </c>
       <c r="K23">
-        <v>12.54456539613457</v>
+        <v>11.97924019843652</v>
       </c>
       <c r="L23">
-        <v>10.91711741576212</v>
+        <v>10.22952072072753</v>
       </c>
       <c r="M23">
-        <v>15.59357485780582</v>
+        <v>7.624874995471309</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>10.90916615215427</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>15.6792591684886</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>13.87170549594748</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>13.22727005992019</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.11872203721108</v>
+        <v>16.03763601045607</v>
       </c>
       <c r="C24">
-        <v>10.41937257535554</v>
+        <v>10.76122928616698</v>
       </c>
       <c r="D24">
-        <v>12.93757135524944</v>
+        <v>13.07877829780521</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>22.86470597406447</v>
+        <v>22.36837589598781</v>
       </c>
       <c r="G24">
-        <v>20.92533776729642</v>
+        <v>19.86203673871873</v>
       </c>
       <c r="H24">
-        <v>2.073567726590318</v>
+        <v>2.078266302178279</v>
       </c>
       <c r="I24">
-        <v>2.694549707153495</v>
+        <v>2.743384747154815</v>
       </c>
       <c r="J24">
-        <v>8.636604189845158</v>
+        <v>8.833492271719795</v>
       </c>
       <c r="K24">
-        <v>12.80264430815487</v>
+        <v>12.39185365387146</v>
       </c>
       <c r="L24">
-        <v>10.34984927285221</v>
+        <v>10.56754083864282</v>
       </c>
       <c r="M24">
-        <v>14.59399267246718</v>
+        <v>7.778226997794786</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>10.35276225391416</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>14.68604119085706</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>13.8968400118501</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>13.53506500625002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.69622177951634</v>
+        <v>14.65659940580571</v>
       </c>
       <c r="C25">
-        <v>9.648360066409492</v>
+        <v>9.840509198526247</v>
       </c>
       <c r="D25">
-        <v>11.89291436046413</v>
+        <v>12.00716262617804</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>22.12014072720415</v>
+        <v>21.73374783146782</v>
       </c>
       <c r="G25">
-        <v>20.61266025963463</v>
+        <v>19.53228966839572</v>
       </c>
       <c r="H25">
-        <v>1.703327691389158</v>
+        <v>1.719969499412215</v>
       </c>
       <c r="I25">
-        <v>2.519956969137985</v>
+        <v>2.538222886651744</v>
       </c>
       <c r="J25">
-        <v>8.732550696513588</v>
+        <v>8.964244317390477</v>
       </c>
       <c r="K25">
-        <v>13.09970657675123</v>
+        <v>12.72388636426597</v>
       </c>
       <c r="L25">
-        <v>9.701448836265147</v>
+        <v>10.87965762453675</v>
       </c>
       <c r="M25">
-        <v>13.43328731185854</v>
+        <v>7.891491649134956</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>9.712164035102688</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>13.50615955488841</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>13.95472614445864</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>13.65932102697631</v>
       </c>
     </row>
   </sheetData>
